--- a/simulation_results.xlsx
+++ b/simulation_results.xlsx
@@ -471,10 +471,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -544,16 +544,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>1544</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>5.375647668393782</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>3043</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>8.905685179099573</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -590,16 +590,16 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>4662</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>737</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>15.80866580866581</v>
+        <v>96.875</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -613,16 +613,16 @@
         <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>6178</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>1221</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>19.7636775655552</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>7761</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>1756</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>22.62595026414122</v>
+        <v>87.71929824561403</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -659,16 +659,16 @@
         <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>9266</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>2381</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>25.69609324411828</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>10761</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n">
-        <v>2936</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>27.28370969240777</v>
+        <v>84.81012658227847</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>12393</v>
+        <v>88</v>
       </c>
       <c r="D9" t="n">
-        <v>3895</v>
+        <v>82</v>
       </c>
       <c r="E9" t="n">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="F9" t="n">
-        <v>31.42903251835714</v>
+        <v>93.18181818181817</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>90</v>
       </c>
       <c r="C10" t="n">
-        <v>13955</v>
+        <v>101</v>
       </c>
       <c r="D10" t="n">
-        <v>4585</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="F10" t="n">
-        <v>32.85560730920817</v>
+        <v>93.06930693069307</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -751,16 +751,16 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>15486</v>
+        <v>113</v>
       </c>
       <c r="D11" t="n">
-        <v>6442</v>
+        <v>106</v>
       </c>
       <c r="E11" t="n">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="F11" t="n">
-        <v>41.59886348960351</v>
+        <v>93.80530973451327</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>1560</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>6.089743589743589</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>3052</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>8.617300131061599</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>4623</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>587</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>12.6973826519576</v>
+        <v>96.96969696969697</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -843,16 +843,16 @@
         <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>6249</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>1294</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>20.70731317010722</v>
+        <v>95.45454545454545</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -866,16 +866,16 @@
         <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>7741</v>
+        <v>54</v>
       </c>
       <c r="D16" t="n">
-        <v>1930</v>
+        <v>51</v>
       </c>
       <c r="E16" t="n">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>24.93217930499936</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>9275</v>
+        <v>64</v>
       </c>
       <c r="D17" t="n">
-        <v>2705</v>
+        <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>29.1644204851752</v>
+        <v>93.75</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>70</v>
       </c>
       <c r="C18" t="n">
-        <v>10778</v>
+        <v>76</v>
       </c>
       <c r="D18" t="n">
-        <v>3152</v>
+        <v>68</v>
       </c>
       <c r="E18" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F18" t="n">
-        <v>29.24475784004453</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>80</v>
       </c>
       <c r="C19" t="n">
-        <v>12337</v>
+        <v>85</v>
       </c>
       <c r="D19" t="n">
-        <v>3710</v>
+        <v>74</v>
       </c>
       <c r="E19" t="n">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="F19" t="n">
-        <v>30.07214071492259</v>
+        <v>87.05882352941177</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>90</v>
       </c>
       <c r="C20" t="n">
-        <v>13904</v>
+        <v>96</v>
       </c>
       <c r="D20" t="n">
-        <v>4879</v>
+        <v>89</v>
       </c>
       <c r="E20" t="n">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="F20" t="n">
-        <v>35.09062140391254</v>
+        <v>92.70833333333334</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>15482</v>
+        <v>109</v>
       </c>
       <c r="D21" t="n">
-        <v>6441</v>
+        <v>101</v>
       </c>
       <c r="E21" t="n">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="F21" t="n">
-        <v>41.60315204753908</v>
+        <v>92.66055045871559</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>1510</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>4.503311258278146</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1027,16 +1027,16 @@
         <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>3088</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>10.39507772020725</v>
+        <v>72</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1050,16 +1050,16 @@
         <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>4606</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>778</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>16.89101172383847</v>
+        <v>75</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1073,16 +1073,16 @@
         <v>40</v>
       </c>
       <c r="C25" t="n">
-        <v>6226</v>
+        <v>43</v>
       </c>
       <c r="D25" t="n">
-        <v>1123</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>18.03726309026662</v>
+        <v>93.02325581395348</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>50</v>
       </c>
       <c r="C26" t="n">
-        <v>7733</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>1479</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>19.12582438898228</v>
+        <v>92.72727272727272</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1119,16 +1119,16 @@
         <v>60</v>
       </c>
       <c r="C27" t="n">
-        <v>9329</v>
+        <v>70</v>
       </c>
       <c r="D27" t="n">
-        <v>2329</v>
+        <v>51</v>
       </c>
       <c r="E27" t="n">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="F27" t="n">
-        <v>24.9651623968271</v>
+        <v>72.85714285714285</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>70</v>
       </c>
       <c r="C28" t="n">
-        <v>10884</v>
+        <v>76</v>
       </c>
       <c r="D28" t="n">
-        <v>3459</v>
+        <v>68</v>
       </c>
       <c r="E28" t="n">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="F28" t="n">
-        <v>31.7805953693495</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1165,16 +1165,16 @@
         <v>80</v>
       </c>
       <c r="C29" t="n">
-        <v>12394</v>
+        <v>84</v>
       </c>
       <c r="D29" t="n">
-        <v>3825</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="F29" t="n">
-        <v>30.86170727771502</v>
+        <v>94.04761904761905</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1188,16 +1188,16 @@
         <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>13969</v>
+        <v>97</v>
       </c>
       <c r="D30" t="n">
-        <v>4760</v>
+        <v>91</v>
       </c>
       <c r="E30" t="n">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="F30" t="n">
-        <v>34.07545278831699</v>
+        <v>93.81443298969072</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>15539</v>
+        <v>111</v>
       </c>
       <c r="D31" t="n">
-        <v>6275</v>
+        <v>104</v>
       </c>
       <c r="E31" t="n">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="F31" t="n">
-        <v>40.38226398095116</v>
+        <v>93.69369369369369</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1234,16 +1234,16 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>1534</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>6.323337679269883</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>3099</v>
+        <v>24</v>
       </c>
       <c r="D33" t="n">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>10.58405937399161</v>
+        <v>75</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1280,16 +1280,16 @@
         <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>4639</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>652</v>
+        <v>23</v>
       </c>
       <c r="E34" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>14.05475317956456</v>
+        <v>76.66666666666667</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>40</v>
       </c>
       <c r="C35" t="n">
-        <v>6111</v>
+        <v>43</v>
       </c>
       <c r="D35" t="n">
-        <v>1544</v>
+        <v>40</v>
       </c>
       <c r="E35" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="F35" t="n">
-        <v>25.26591392570774</v>
+        <v>93.02325581395348</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>50</v>
       </c>
       <c r="C36" t="n">
-        <v>7684</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>1589</v>
+        <v>49</v>
       </c>
       <c r="E36" t="n">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n">
-        <v>20.6793336803748</v>
+        <v>89.09090909090909</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>9359</v>
+        <v>71</v>
       </c>
       <c r="D37" t="n">
-        <v>2508</v>
+        <v>58</v>
       </c>
       <c r="E37" t="n">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="F37" t="n">
-        <v>26.79773480072657</v>
+        <v>81.69014084507043</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>70</v>
       </c>
       <c r="C38" t="n">
-        <v>10814</v>
+        <v>76</v>
       </c>
       <c r="D38" t="n">
-        <v>3512</v>
+        <v>64</v>
       </c>
       <c r="E38" t="n">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F38" t="n">
-        <v>32.4764194562604</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1395,16 +1395,16 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>12455</v>
+        <v>89</v>
       </c>
       <c r="D39" t="n">
-        <v>3630</v>
+        <v>75</v>
       </c>
       <c r="E39" t="n">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F39" t="n">
-        <v>29.14492171818547</v>
+        <v>84.26966292134831</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>90</v>
       </c>
       <c r="C40" t="n">
-        <v>13953</v>
+        <v>97</v>
       </c>
       <c r="D40" t="n">
-        <v>4348</v>
+        <v>85</v>
       </c>
       <c r="E40" t="n">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F40" t="n">
-        <v>31.16175732817315</v>
+        <v>87.62886597938144</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1441,16 +1441,16 @@
         <v>100</v>
       </c>
       <c r="C41" t="n">
-        <v>15515</v>
+        <v>111</v>
       </c>
       <c r="D41" t="n">
-        <v>6016</v>
+        <v>100</v>
       </c>
       <c r="E41" t="n">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="F41" t="n">
-        <v>38.77537866580728</v>
+        <v>90.09009009009009</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1464,16 +1464,16 @@
         <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>1535</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>3.387622149837134</v>
+        <v>70</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1487,16 +1487,16 @@
         <v>20</v>
       </c>
       <c r="C43" t="n">
-        <v>3063</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>362</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>11.81847861573621</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>30</v>
       </c>
       <c r="C44" t="n">
-        <v>4630</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
-        <v>455</v>
+        <v>27</v>
       </c>
       <c r="E44" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>9.827213822894167</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>40</v>
       </c>
       <c r="C45" t="n">
-        <v>6182</v>
+        <v>43</v>
       </c>
       <c r="D45" t="n">
-        <v>1214</v>
+        <v>35</v>
       </c>
       <c r="E45" t="n">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F45" t="n">
-        <v>19.63765771594953</v>
+        <v>81.3953488372093</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1556,16 +1556,16 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>7801</v>
+        <v>54</v>
       </c>
       <c r="D46" t="n">
-        <v>1495</v>
+        <v>40</v>
       </c>
       <c r="E46" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>19.16420971670299</v>
+        <v>74.07407407407408</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>60</v>
       </c>
       <c r="C47" t="n">
-        <v>9318</v>
+        <v>68</v>
       </c>
       <c r="D47" t="n">
-        <v>2690</v>
+        <v>55</v>
       </c>
       <c r="E47" t="n">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="F47" t="n">
-        <v>28.86885597767762</v>
+        <v>80.88235294117648</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>70</v>
       </c>
       <c r="C48" t="n">
-        <v>10824</v>
+        <v>77</v>
       </c>
       <c r="D48" t="n">
-        <v>3099</v>
+        <v>64</v>
       </c>
       <c r="E48" t="n">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="F48" t="n">
-        <v>28.63082039911308</v>
+        <v>83.11688311688312</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1625,16 +1625,16 @@
         <v>80</v>
       </c>
       <c r="C49" t="n">
-        <v>12377</v>
+        <v>93</v>
       </c>
       <c r="D49" t="n">
-        <v>4599</v>
+        <v>76</v>
       </c>
       <c r="E49" t="n">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="F49" t="n">
-        <v>37.15763108992486</v>
+        <v>81.72043010752688</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1648,16 +1648,16 @@
         <v>90</v>
       </c>
       <c r="C50" t="n">
-        <v>13973</v>
+        <v>100</v>
       </c>
       <c r="D50" t="n">
-        <v>4204</v>
+        <v>78</v>
       </c>
       <c r="E50" t="n">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="F50" t="n">
-        <v>30.08659557718457</v>
+        <v>78</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1671,16 +1671,16 @@
         <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>15481</v>
+        <v>113</v>
       </c>
       <c r="D51" t="n">
-        <v>4889</v>
+        <v>90</v>
       </c>
       <c r="E51" t="n">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="F51" t="n">
-        <v>31.58064724501001</v>
+        <v>79.64601769911505</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>1546</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>6.921086675291074</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1717,16 +1717,16 @@
         <v>20</v>
       </c>
       <c r="C53" t="n">
-        <v>3106</v>
+        <v>22</v>
       </c>
       <c r="D53" t="n">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="E53" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F53" t="n">
-        <v>10.33483580167418</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>30</v>
       </c>
       <c r="C54" t="n">
-        <v>4599</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
-        <v>674</v>
+        <v>29</v>
       </c>
       <c r="E54" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>14.65535986083931</v>
+        <v>93.54838709677419</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1763,16 +1763,16 @@
         <v>40</v>
       </c>
       <c r="C55" t="n">
-        <v>6134</v>
+        <v>43</v>
       </c>
       <c r="D55" t="n">
-        <v>854</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F55" t="n">
-        <v>13.92239973915879</v>
+        <v>93.02325581395348</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1786,16 +1786,16 @@
         <v>50</v>
       </c>
       <c r="C56" t="n">
-        <v>7698</v>
+        <v>58</v>
       </c>
       <c r="D56" t="n">
-        <v>1909</v>
+        <v>45</v>
       </c>
       <c r="E56" t="n">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F56" t="n">
-        <v>24.79864899974019</v>
+        <v>77.58620689655173</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="n">
-        <v>9266</v>
+        <v>70</v>
       </c>
       <c r="D57" t="n">
-        <v>2159</v>
+        <v>55</v>
       </c>
       <c r="E57" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="F57" t="n">
-        <v>23.30023742715303</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1832,16 +1832,16 @@
         <v>70</v>
       </c>
       <c r="C58" t="n">
-        <v>10816</v>
+        <v>79</v>
       </c>
       <c r="D58" t="n">
-        <v>3129</v>
+        <v>49</v>
       </c>
       <c r="E58" t="n">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="F58" t="n">
-        <v>28.92936390532545</v>
+        <v>62.0253164556962</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>80</v>
       </c>
       <c r="C59" t="n">
-        <v>12410</v>
+        <v>91</v>
       </c>
       <c r="D59" t="n">
-        <v>4085</v>
+        <v>73</v>
       </c>
       <c r="E59" t="n">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F59" t="n">
-        <v>32.91700241740531</v>
+        <v>80.21978021978022</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1878,19 +1878,19 @@
         <v>90</v>
       </c>
       <c r="C60" t="n">
-        <v>13904</v>
+        <v>99</v>
       </c>
       <c r="D60" t="n">
-        <v>5031</v>
+        <v>86</v>
       </c>
       <c r="E60" t="n">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="F60" t="n">
-        <v>36.18383199079402</v>
+        <v>86.86868686868688</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1901,19 +1901,19 @@
         <v>100</v>
       </c>
       <c r="C61" t="n">
-        <v>15567</v>
+        <v>110</v>
       </c>
       <c r="D61" t="n">
-        <v>5690</v>
+        <v>83</v>
       </c>
       <c r="E61" t="n">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="F61" t="n">
-        <v>36.55167983554956</v>
+        <v>75.45454545454545</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -1924,16 +1924,16 @@
         <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>1556</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
-        <v>2.827763496143959</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1947,16 +1947,16 @@
         <v>20</v>
       </c>
       <c r="C63" t="n">
-        <v>3133</v>
+        <v>24</v>
       </c>
       <c r="D63" t="n">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>7.851899138206192</v>
+        <v>62.5</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>30</v>
       </c>
       <c r="C64" t="n">
-        <v>4636</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>616</v>
+        <v>17</v>
       </c>
       <c r="E64" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>13.28731665228645</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -1993,16 +1993,16 @@
         <v>40</v>
       </c>
       <c r="C65" t="n">
-        <v>6184</v>
+        <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>974</v>
+        <v>37</v>
       </c>
       <c r="E65" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F65" t="n">
-        <v>15.7503234152652</v>
+        <v>74</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2016,16 +2016,16 @@
         <v>50</v>
       </c>
       <c r="C66" t="n">
-        <v>7711</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
-        <v>1584</v>
+        <v>39</v>
       </c>
       <c r="E66" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F66" t="n">
-        <v>20.54208273894437</v>
+        <v>70.90909090909091</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>60</v>
       </c>
       <c r="C67" t="n">
-        <v>9313</v>
+        <v>69</v>
       </c>
       <c r="D67" t="n">
-        <v>2127</v>
+        <v>57</v>
       </c>
       <c r="E67" t="n">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F67" t="n">
-        <v>22.83904219907656</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2062,19 +2062,19 @@
         <v>70</v>
       </c>
       <c r="C68" t="n">
-        <v>10832</v>
+        <v>77</v>
       </c>
       <c r="D68" t="n">
-        <v>3135</v>
+        <v>48</v>
       </c>
       <c r="E68" t="n">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="F68" t="n">
-        <v>28.94202363367799</v>
+        <v>62.33766233766234</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2085,19 +2085,19 @@
         <v>80</v>
       </c>
       <c r="C69" t="n">
-        <v>12444</v>
+        <v>100</v>
       </c>
       <c r="D69" t="n">
-        <v>4020</v>
+        <v>80</v>
       </c>
       <c r="E69" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="F69" t="n">
-        <v>32.30472516875603</v>
+        <v>80</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -2108,19 +2108,19 @@
         <v>90</v>
       </c>
       <c r="C70" t="n">
-        <v>13889</v>
+        <v>99</v>
       </c>
       <c r="D70" t="n">
-        <v>5108</v>
+        <v>69</v>
       </c>
       <c r="E70" t="n">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="F70" t="n">
-        <v>36.77730578155375</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2131,19 +2131,19 @@
         <v>100</v>
       </c>
       <c r="C71" t="n">
-        <v>15494</v>
+        <v>116</v>
       </c>
       <c r="D71" t="n">
-        <v>6019</v>
+        <v>91</v>
       </c>
       <c r="E71" t="n">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="F71" t="n">
-        <v>38.84729572737834</v>
+        <v>78.44827586206897</v>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2154,16 +2154,16 @@
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>1543</v>
+        <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>4.471808165910564</v>
+        <v>90</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2177,16 +2177,16 @@
         <v>20</v>
       </c>
       <c r="C73" t="n">
-        <v>3105</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="E73" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>9.371980676328501</v>
+        <v>68</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2200,16 +2200,16 @@
         <v>30</v>
       </c>
       <c r="C74" t="n">
-        <v>4654</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
-        <v>695</v>
+        <v>27</v>
       </c>
       <c r="E74" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>14.93339063171465</v>
+        <v>87.09677419354838</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2223,19 +2223,19 @@
         <v>40</v>
       </c>
       <c r="C75" t="n">
-        <v>6215</v>
+        <v>48</v>
       </c>
       <c r="D75" t="n">
-        <v>1063</v>
+        <v>44</v>
       </c>
       <c r="E75" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F75" t="n">
-        <v>17.10378117457763</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2246,19 +2246,19 @@
         <v>50</v>
       </c>
       <c r="C76" t="n">
-        <v>7717</v>
+        <v>53</v>
       </c>
       <c r="D76" t="n">
-        <v>1668</v>
+        <v>35</v>
       </c>
       <c r="E76" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F76" t="n">
-        <v>21.61461707917585</v>
+        <v>66.0377358490566</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2269,19 +2269,19 @@
         <v>60</v>
       </c>
       <c r="C77" t="n">
-        <v>9262</v>
+        <v>63</v>
       </c>
       <c r="D77" t="n">
-        <v>2281</v>
+        <v>51</v>
       </c>
       <c r="E77" t="n">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F77" t="n">
-        <v>24.62751025696394</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -2292,19 +2292,19 @@
         <v>70</v>
       </c>
       <c r="C78" t="n">
-        <v>10841</v>
+        <v>79</v>
       </c>
       <c r="D78" t="n">
-        <v>2607</v>
+        <v>64</v>
       </c>
       <c r="E78" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F78" t="n">
-        <v>24.04759708513975</v>
+        <v>81.01265822784811</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2315,19 +2315,19 @@
         <v>80</v>
       </c>
       <c r="C79" t="n">
-        <v>12472</v>
+        <v>94</v>
       </c>
       <c r="D79" t="n">
-        <v>4318</v>
+        <v>67</v>
       </c>
       <c r="E79" t="n">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F79" t="n">
-        <v>34.6215522771007</v>
+        <v>71.27659574468085</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -2338,19 +2338,19 @@
         <v>90</v>
       </c>
       <c r="C80" t="n">
-        <v>13961</v>
+        <v>106</v>
       </c>
       <c r="D80" t="n">
-        <v>4528</v>
+        <v>93</v>
       </c>
       <c r="E80" t="n">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="F80" t="n">
-        <v>32.43320679034453</v>
+        <v>87.73584905660378</v>
       </c>
       <c r="G80" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -2361,19 +2361,19 @@
         <v>100</v>
       </c>
       <c r="C81" t="n">
-        <v>15402</v>
+        <v>115</v>
       </c>
       <c r="D81" t="n">
-        <v>5587</v>
+        <v>89</v>
       </c>
       <c r="E81" t="n">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="F81" t="n">
-        <v>36.27450980392157</v>
+        <v>77.39130434782608</v>
       </c>
       <c r="G81" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -2384,16 +2384,16 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>1514</v>
+        <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
-        <v>5.680317040951123</v>
+        <v>60</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2407,16 +2407,16 @@
         <v>20</v>
       </c>
       <c r="C83" t="n">
-        <v>3120</v>
+        <v>23</v>
       </c>
       <c r="D83" t="n">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="E83" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>8.397435897435896</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2430,16 +2430,16 @@
         <v>30</v>
       </c>
       <c r="C84" t="n">
-        <v>4642</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
-        <v>833</v>
+        <v>26</v>
       </c>
       <c r="E84" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F84" t="n">
-        <v>17.94485135717363</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>40</v>
       </c>
       <c r="C85" t="n">
-        <v>6216</v>
+        <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>1298</v>
+        <v>29</v>
       </c>
       <c r="E85" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F85" t="n">
-        <v>20.88159588159588</v>
+        <v>65.90909090909091</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2476,19 +2476,19 @@
         <v>50</v>
       </c>
       <c r="C86" t="n">
-        <v>7682</v>
+        <v>59</v>
       </c>
       <c r="D86" t="n">
-        <v>1480</v>
+        <v>46</v>
       </c>
       <c r="E86" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F86" t="n">
-        <v>19.26581619369956</v>
+        <v>77.96610169491525</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -2499,19 +2499,19 @@
         <v>60</v>
       </c>
       <c r="C87" t="n">
-        <v>9388</v>
+        <v>75</v>
       </c>
       <c r="D87" t="n">
-        <v>2246</v>
+        <v>65</v>
       </c>
       <c r="E87" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F87" t="n">
-        <v>23.92415850021304</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -2522,19 +2522,19 @@
         <v>70</v>
       </c>
       <c r="C88" t="n">
-        <v>10836</v>
+        <v>77</v>
       </c>
       <c r="D88" t="n">
-        <v>3229</v>
+        <v>67</v>
       </c>
       <c r="E88" t="n">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="F88" t="n">
-        <v>29.79881875230713</v>
+        <v>87.01298701298701</v>
       </c>
       <c r="G88" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -2545,19 +2545,19 @@
         <v>80</v>
       </c>
       <c r="C89" t="n">
-        <v>12415</v>
+        <v>99</v>
       </c>
       <c r="D89" t="n">
-        <v>3814</v>
+        <v>81</v>
       </c>
       <c r="E89" t="n">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F89" t="n">
-        <v>30.7209021345147</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="G89" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
@@ -2568,19 +2568,19 @@
         <v>90</v>
       </c>
       <c r="C90" t="n">
-        <v>13991</v>
+        <v>98</v>
       </c>
       <c r="D90" t="n">
-        <v>4680</v>
+        <v>62</v>
       </c>
       <c r="E90" t="n">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="F90" t="n">
-        <v>33.4500750482453</v>
+        <v>63.26530612244898</v>
       </c>
       <c r="G90" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
@@ -2591,19 +2591,19 @@
         <v>100</v>
       </c>
       <c r="C91" t="n">
-        <v>15503</v>
+        <v>115</v>
       </c>
       <c r="D91" t="n">
-        <v>5607</v>
+        <v>97</v>
       </c>
       <c r="E91" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="F91" t="n">
-        <v>36.16719344642972</v>
+        <v>84.34782608695653</v>
       </c>
       <c r="G91" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92">
@@ -2614,16 +2614,16 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>1546</v>
+        <v>11</v>
       </c>
       <c r="D92" t="n">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="E92" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
-        <v>5.498059508408796</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2637,16 +2637,16 @@
         <v>20</v>
       </c>
       <c r="C93" t="n">
-        <v>3120</v>
+        <v>22</v>
       </c>
       <c r="D93" t="n">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
-        <v>8.301282051282051</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2660,16 +2660,16 @@
         <v>30</v>
       </c>
       <c r="C94" t="n">
-        <v>4650</v>
+        <v>37</v>
       </c>
       <c r="D94" t="n">
-        <v>457</v>
+        <v>21</v>
       </c>
       <c r="E94" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F94" t="n">
-        <v>9.827956989247312</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2683,19 +2683,19 @@
         <v>40</v>
       </c>
       <c r="C95" t="n">
-        <v>6202</v>
+        <v>47</v>
       </c>
       <c r="D95" t="n">
-        <v>983</v>
+        <v>34</v>
       </c>
       <c r="E95" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F95" t="n">
-        <v>15.84972589487262</v>
+        <v>72.3404255319149</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -2706,19 +2706,19 @@
         <v>50</v>
       </c>
       <c r="C96" t="n">
-        <v>7792</v>
+        <v>57</v>
       </c>
       <c r="D96" t="n">
-        <v>1525</v>
+        <v>36</v>
       </c>
       <c r="E96" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F96" t="n">
-        <v>19.57135523613963</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -2729,19 +2729,19 @@
         <v>60</v>
       </c>
       <c r="C97" t="n">
-        <v>9250</v>
+        <v>66</v>
       </c>
       <c r="D97" t="n">
-        <v>2415</v>
+        <v>51</v>
       </c>
       <c r="E97" t="n">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="F97" t="n">
-        <v>26.10810810810811</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="G97" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98">
@@ -2752,19 +2752,19 @@
         <v>70</v>
       </c>
       <c r="C98" t="n">
-        <v>10856</v>
+        <v>79</v>
       </c>
       <c r="D98" t="n">
-        <v>2725</v>
+        <v>64</v>
       </c>
       <c r="E98" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F98" t="n">
-        <v>25.10132645541636</v>
+        <v>81.01265822784811</v>
       </c>
       <c r="G98" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -2775,19 +2775,19 @@
         <v>80</v>
       </c>
       <c r="C99" t="n">
-        <v>12528</v>
+        <v>99</v>
       </c>
       <c r="D99" t="n">
-        <v>3977</v>
+        <v>83</v>
       </c>
       <c r="E99" t="n">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F99" t="n">
-        <v>31.7448914431673</v>
+        <v>83.83838383838383</v>
       </c>
       <c r="G99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100">
@@ -2798,19 +2798,19 @@
         <v>90</v>
       </c>
       <c r="C100" t="n">
-        <v>13973</v>
+        <v>103</v>
       </c>
       <c r="D100" t="n">
-        <v>4477</v>
+        <v>70</v>
       </c>
       <c r="E100" t="n">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="F100" t="n">
-        <v>32.04036355829099</v>
+        <v>67.96116504854369</v>
       </c>
       <c r="G100" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
@@ -2821,19 +2821,19 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>15545</v>
+        <v>119</v>
       </c>
       <c r="D101" t="n">
-        <v>5899</v>
+        <v>90</v>
       </c>
       <c r="E101" t="n">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="F101" t="n">
-        <v>37.94789321325185</v>
+        <v>75.63025210084034</v>
       </c>
       <c r="G101" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102">
@@ -2844,16 +2844,16 @@
         <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>1590</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F102" t="n">
-        <v>5.283018867924529</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2867,19 +2867,19 @@
         <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>3130</v>
+        <v>23</v>
       </c>
       <c r="D103" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="E103" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F103" t="n">
-        <v>7.987220447284344</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2890,19 +2890,19 @@
         <v>30</v>
       </c>
       <c r="C104" t="n">
-        <v>4645</v>
+        <v>34</v>
       </c>
       <c r="D104" t="n">
-        <v>560</v>
+        <v>21</v>
       </c>
       <c r="E104" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>12.05597416576964</v>
+        <v>61.76470588235294</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -2913,19 +2913,19 @@
         <v>40</v>
       </c>
       <c r="C105" t="n">
-        <v>6226</v>
+        <v>53</v>
       </c>
       <c r="D105" t="n">
-        <v>1012</v>
+        <v>40</v>
       </c>
       <c r="E105" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="F105" t="n">
-        <v>16.25441696113074</v>
+        <v>75.47169811320755</v>
       </c>
       <c r="G105" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2936,19 +2936,19 @@
         <v>50</v>
       </c>
       <c r="C106" t="n">
-        <v>7754</v>
+        <v>59</v>
       </c>
       <c r="D106" t="n">
-        <v>1435</v>
+        <v>37</v>
       </c>
       <c r="E106" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F106" t="n">
-        <v>18.50657725045138</v>
+        <v>62.71186440677966</v>
       </c>
       <c r="G106" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
@@ -2959,19 +2959,19 @@
         <v>60</v>
       </c>
       <c r="C107" t="n">
-        <v>9287</v>
+        <v>73</v>
       </c>
       <c r="D107" t="n">
-        <v>2141</v>
+        <v>53</v>
       </c>
       <c r="E107" t="n">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="F107" t="n">
-        <v>23.05373102185851</v>
+        <v>72.60273972602739</v>
       </c>
       <c r="G107" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
@@ -2982,19 +2982,19 @@
         <v>70</v>
       </c>
       <c r="C108" t="n">
-        <v>10945</v>
+        <v>80</v>
       </c>
       <c r="D108" t="n">
-        <v>2960</v>
+        <v>58</v>
       </c>
       <c r="E108" t="n">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F108" t="n">
-        <v>27.04431247144815</v>
+        <v>72.5</v>
       </c>
       <c r="G108" t="n">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109">
@@ -3005,19 +3005,19 @@
         <v>80</v>
       </c>
       <c r="C109" t="n">
-        <v>12529</v>
+        <v>94</v>
       </c>
       <c r="D109" t="n">
-        <v>3880</v>
+        <v>77</v>
       </c>
       <c r="E109" t="n">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="F109" t="n">
-        <v>30.96815388299146</v>
+        <v>81.91489361702128</v>
       </c>
       <c r="G109" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110">
@@ -3028,19 +3028,19 @@
         <v>90</v>
       </c>
       <c r="C110" t="n">
-        <v>14039</v>
+        <v>114</v>
       </c>
       <c r="D110" t="n">
-        <v>4128</v>
+        <v>93</v>
       </c>
       <c r="E110" t="n">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="F110" t="n">
-        <v>29.40380368972149</v>
+        <v>81.57894736842105</v>
       </c>
       <c r="G110" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111">
@@ -3051,19 +3051,19 @@
         <v>100</v>
       </c>
       <c r="C111" t="n">
-        <v>15643</v>
+        <v>118</v>
       </c>
       <c r="D111" t="n">
-        <v>4973</v>
+        <v>84</v>
       </c>
       <c r="E111" t="n">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="F111" t="n">
-        <v>31.79057725500224</v>
+        <v>71.1864406779661</v>
       </c>
       <c r="G111" t="n">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112">
@@ -3074,16 +3074,16 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>1563</v>
+        <v>14</v>
       </c>
       <c r="D112" t="n">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F112" t="n">
-        <v>4.926423544465771</v>
+        <v>50</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3097,16 +3097,16 @@
         <v>20</v>
       </c>
       <c r="C113" t="n">
-        <v>3079</v>
+        <v>20</v>
       </c>
       <c r="D113" t="n">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="E113" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F113" t="n">
-        <v>7.729782396882104</v>
+        <v>65</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3120,19 +3120,19 @@
         <v>30</v>
       </c>
       <c r="C114" t="n">
-        <v>4684</v>
+        <v>39</v>
       </c>
       <c r="D114" t="n">
-        <v>659</v>
+        <v>31</v>
       </c>
       <c r="E114" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F114" t="n">
-        <v>14.06917164816396</v>
+        <v>79.48717948717949</v>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -3143,19 +3143,19 @@
         <v>40</v>
       </c>
       <c r="C115" t="n">
-        <v>6193</v>
+        <v>55</v>
       </c>
       <c r="D115" t="n">
-        <v>931</v>
+        <v>38</v>
       </c>
       <c r="E115" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F115" t="n">
-        <v>15.03310188922977</v>
+        <v>69.09090909090909</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -3166,19 +3166,19 @@
         <v>50</v>
       </c>
       <c r="C116" t="n">
-        <v>7872</v>
+        <v>56</v>
       </c>
       <c r="D116" t="n">
-        <v>1861</v>
+        <v>41</v>
       </c>
       <c r="E116" t="n">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F116" t="n">
-        <v>23.64075203252033</v>
+        <v>73.21428571428571</v>
       </c>
       <c r="G116" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
@@ -3189,19 +3189,19 @@
         <v>60</v>
       </c>
       <c r="C117" t="n">
-        <v>9332</v>
+        <v>74</v>
       </c>
       <c r="D117" t="n">
-        <v>2152</v>
+        <v>61</v>
       </c>
       <c r="E117" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F117" t="n">
-        <v>23.06043720531505</v>
+        <v>82.43243243243244</v>
       </c>
       <c r="G117" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
@@ -3212,19 +3212,19 @@
         <v>70</v>
       </c>
       <c r="C118" t="n">
-        <v>10886</v>
+        <v>82</v>
       </c>
       <c r="D118" t="n">
-        <v>2854</v>
+        <v>59</v>
       </c>
       <c r="E118" t="n">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="F118" t="n">
-        <v>26.21715965460224</v>
+        <v>71.95121951219512</v>
       </c>
       <c r="G118" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119">
@@ -3235,19 +3235,19 @@
         <v>80</v>
       </c>
       <c r="C119" t="n">
-        <v>12465</v>
+        <v>91</v>
       </c>
       <c r="D119" t="n">
-        <v>3771</v>
+        <v>72</v>
       </c>
       <c r="E119" t="n">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F119" t="n">
-        <v>30.25270758122744</v>
+        <v>79.12087912087912</v>
       </c>
       <c r="G119" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
@@ -3258,19 +3258,19 @@
         <v>90</v>
       </c>
       <c r="C120" t="n">
-        <v>14017</v>
+        <v>105</v>
       </c>
       <c r="D120" t="n">
-        <v>3957</v>
+        <v>80</v>
       </c>
       <c r="E120" t="n">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F120" t="n">
-        <v>28.23000642077477</v>
+        <v>76.19047619047619</v>
       </c>
       <c r="G120" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121">
@@ -3281,19 +3281,19 @@
         <v>100</v>
       </c>
       <c r="C121" t="n">
-        <v>15602</v>
+        <v>117</v>
       </c>
       <c r="D121" t="n">
-        <v>5046</v>
+        <v>101</v>
       </c>
       <c r="E121" t="n">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="F121" t="n">
-        <v>32.34200743494424</v>
+        <v>86.32478632478633</v>
       </c>
       <c r="G121" t="n">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
@@ -3304,16 +3304,16 @@
         <v>10</v>
       </c>
       <c r="C122" t="n">
-        <v>1566</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>4.21455938697318</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3327,16 +3327,16 @@
         <v>20</v>
       </c>
       <c r="C123" t="n">
-        <v>3133</v>
+        <v>23</v>
       </c>
       <c r="D123" t="n">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="E123" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F123" t="n">
-        <v>9.256303862112992</v>
+        <v>78.26086956521739</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -3350,16 +3350,16 @@
         <v>30</v>
       </c>
       <c r="C124" t="n">
-        <v>4694</v>
+        <v>33</v>
       </c>
       <c r="D124" t="n">
-        <v>553</v>
+        <v>25</v>
       </c>
       <c r="E124" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>11.78099701746911</v>
+        <v>75.75757575757575</v>
       </c>
       <c r="G124" t="n">
         <v>9</v>
@@ -3373,19 +3373,19 @@
         <v>40</v>
       </c>
       <c r="C125" t="n">
-        <v>6297</v>
+        <v>47</v>
       </c>
       <c r="D125" t="n">
-        <v>1043</v>
+        <v>22</v>
       </c>
       <c r="E125" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F125" t="n">
-        <v>16.5634429093219</v>
+        <v>46.80851063829788</v>
       </c>
       <c r="G125" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3396,19 +3396,19 @@
         <v>50</v>
       </c>
       <c r="C126" t="n">
-        <v>7786</v>
+        <v>57</v>
       </c>
       <c r="D126" t="n">
-        <v>1406</v>
+        <v>35</v>
       </c>
       <c r="E126" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F126" t="n">
-        <v>18.05805291548934</v>
+        <v>61.40350877192983</v>
       </c>
       <c r="G126" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
@@ -3419,19 +3419,19 @@
         <v>60</v>
       </c>
       <c r="C127" t="n">
-        <v>9314</v>
+        <v>70</v>
       </c>
       <c r="D127" t="n">
-        <v>1817</v>
+        <v>46</v>
       </c>
       <c r="E127" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="F127" t="n">
-        <v>19.50826712475843</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="G127" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
@@ -3442,19 +3442,19 @@
         <v>70</v>
       </c>
       <c r="C128" t="n">
-        <v>10915</v>
+        <v>86</v>
       </c>
       <c r="D128" t="n">
-        <v>2419</v>
+        <v>60</v>
       </c>
       <c r="E128" t="n">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="F128" t="n">
-        <v>22.16216216216216</v>
+        <v>69.76744186046511</v>
       </c>
       <c r="G128" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129">
@@ -3465,19 +3465,19 @@
         <v>80</v>
       </c>
       <c r="C129" t="n">
-        <v>12524</v>
+        <v>103</v>
       </c>
       <c r="D129" t="n">
-        <v>3125</v>
+        <v>78</v>
       </c>
       <c r="E129" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="F129" t="n">
-        <v>24.95209198339189</v>
+        <v>75.72815533980582</v>
       </c>
       <c r="G129" t="n">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130">
@@ -3488,19 +3488,19 @@
         <v>90</v>
       </c>
       <c r="C130" t="n">
-        <v>14008</v>
+        <v>116</v>
       </c>
       <c r="D130" t="n">
-        <v>3731</v>
+        <v>94</v>
       </c>
       <c r="E130" t="n">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="F130" t="n">
-        <v>26.63478012564249</v>
+        <v>81.03448275862068</v>
       </c>
       <c r="G130" t="n">
-        <v>199</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
@@ -3511,19 +3511,19 @@
         <v>100</v>
       </c>
       <c r="C131" t="n">
-        <v>15569</v>
+        <v>124</v>
       </c>
       <c r="D131" t="n">
-        <v>5109</v>
+        <v>93</v>
       </c>
       <c r="E131" t="n">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="F131" t="n">
-        <v>32.8152097116064</v>
+        <v>75</v>
       </c>
       <c r="G131" t="n">
-        <v>314</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132">
@@ -3534,16 +3534,16 @@
         <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>1534</v>
+        <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F132" t="n">
-        <v>3.259452411994785</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>20</v>
       </c>
       <c r="C133" t="n">
-        <v>3145</v>
+        <v>23</v>
       </c>
       <c r="D133" t="n">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="E133" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F133" t="n">
-        <v>5.246422893481717</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -3580,19 +3580,19 @@
         <v>30</v>
       </c>
       <c r="C134" t="n">
-        <v>4656</v>
+        <v>32</v>
       </c>
       <c r="D134" t="n">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="E134" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F134" t="n">
-        <v>13.9819587628866</v>
+        <v>75</v>
       </c>
       <c r="G134" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -3603,19 +3603,19 @@
         <v>40</v>
       </c>
       <c r="C135" t="n">
-        <v>6103</v>
+        <v>46</v>
       </c>
       <c r="D135" t="n">
-        <v>905</v>
+        <v>33</v>
       </c>
       <c r="E135" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F135" t="n">
-        <v>14.82877273472063</v>
+        <v>71.73913043478261</v>
       </c>
       <c r="G135" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136">
@@ -3626,19 +3626,19 @@
         <v>50</v>
       </c>
       <c r="C136" t="n">
-        <v>7839</v>
+        <v>60</v>
       </c>
       <c r="D136" t="n">
-        <v>1419</v>
+        <v>42</v>
       </c>
       <c r="E136" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F136" t="n">
-        <v>18.10179869881362</v>
+        <v>70</v>
       </c>
       <c r="G136" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -3649,19 +3649,19 @@
         <v>60</v>
       </c>
       <c r="C137" t="n">
-        <v>9312</v>
+        <v>74</v>
       </c>
       <c r="D137" t="n">
-        <v>2018</v>
+        <v>42</v>
       </c>
       <c r="E137" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="F137" t="n">
-        <v>21.67096219931272</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="G137" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
@@ -3672,19 +3672,19 @@
         <v>70</v>
       </c>
       <c r="C138" t="n">
-        <v>10954</v>
+        <v>78</v>
       </c>
       <c r="D138" t="n">
-        <v>2276</v>
+        <v>65</v>
       </c>
       <c r="E138" t="n">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="F138" t="n">
-        <v>20.77779806463392</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G138" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
@@ -3695,19 +3695,19 @@
         <v>80</v>
       </c>
       <c r="C139" t="n">
-        <v>12506</v>
+        <v>92</v>
       </c>
       <c r="D139" t="n">
-        <v>2874</v>
+        <v>78</v>
       </c>
       <c r="E139" t="n">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="F139" t="n">
-        <v>22.98096913481529</v>
+        <v>84.78260869565217</v>
       </c>
       <c r="G139" t="n">
-        <v>183</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
@@ -3718,19 +3718,19 @@
         <v>90</v>
       </c>
       <c r="C140" t="n">
-        <v>14052</v>
+        <v>122</v>
       </c>
       <c r="D140" t="n">
-        <v>3346</v>
+        <v>97</v>
       </c>
       <c r="E140" t="n">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="F140" t="n">
-        <v>23.81155707372616</v>
+        <v>79.50819672131148</v>
       </c>
       <c r="G140" t="n">
-        <v>294</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141">
@@ -3741,19 +3741,19 @@
         <v>100</v>
       </c>
       <c r="C141" t="n">
-        <v>15665</v>
+        <v>127</v>
       </c>
       <c r="D141" t="n">
-        <v>4540</v>
+        <v>98</v>
       </c>
       <c r="E141" t="n">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="F141" t="n">
-        <v>28.98180657516757</v>
+        <v>77.16535433070865</v>
       </c>
       <c r="G141" t="n">
-        <v>375</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142">
@@ -3764,19 +3764,19 @@
         <v>10</v>
       </c>
       <c r="C142" t="n">
-        <v>1532</v>
+        <v>12</v>
       </c>
       <c r="D142" t="n">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E142" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F142" t="n">
-        <v>4.3733681462141</v>
+        <v>50</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3787,19 +3787,19 @@
         <v>20</v>
       </c>
       <c r="C143" t="n">
-        <v>3107</v>
+        <v>24</v>
       </c>
       <c r="D143" t="n">
-        <v>276</v>
+        <v>9</v>
       </c>
       <c r="E143" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F143" t="n">
-        <v>8.883167042162858</v>
+        <v>37.5</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3810,19 +3810,19 @@
         <v>30</v>
       </c>
       <c r="C144" t="n">
-        <v>4650</v>
+        <v>36</v>
       </c>
       <c r="D144" t="n">
-        <v>518</v>
+        <v>29</v>
       </c>
       <c r="E144" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F144" t="n">
-        <v>11.13978494623656</v>
+        <v>80.55555555555556</v>
       </c>
       <c r="G144" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -3833,19 +3833,19 @@
         <v>40</v>
       </c>
       <c r="C145" t="n">
-        <v>6254</v>
+        <v>48</v>
       </c>
       <c r="D145" t="n">
-        <v>901</v>
+        <v>31</v>
       </c>
       <c r="E145" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F145" t="n">
-        <v>14.40677966101695</v>
+        <v>64.58333333333334</v>
       </c>
       <c r="G145" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
@@ -3856,19 +3856,19 @@
         <v>50</v>
       </c>
       <c r="C146" t="n">
-        <v>7794</v>
+        <v>58</v>
       </c>
       <c r="D146" t="n">
-        <v>1366</v>
+        <v>47</v>
       </c>
       <c r="E146" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F146" t="n">
-        <v>17.52630228380806</v>
+        <v>81.03448275862068</v>
       </c>
       <c r="G146" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147">
@@ -3879,19 +3879,19 @@
         <v>60</v>
       </c>
       <c r="C147" t="n">
-        <v>9313</v>
+        <v>73</v>
       </c>
       <c r="D147" t="n">
-        <v>1798</v>
+        <v>59</v>
       </c>
       <c r="E147" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F147" t="n">
-        <v>19.30634596800172</v>
+        <v>80.82191780821918</v>
       </c>
       <c r="G147" t="n">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148">
@@ -3902,19 +3902,19 @@
         <v>70</v>
       </c>
       <c r="C148" t="n">
-        <v>11004</v>
+        <v>88</v>
       </c>
       <c r="D148" t="n">
-        <v>2477</v>
+        <v>61</v>
       </c>
       <c r="E148" t="n">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="F148" t="n">
-        <v>22.50999636495819</v>
+        <v>69.31818181818183</v>
       </c>
       <c r="G148" t="n">
-        <v>198</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149">
@@ -3925,19 +3925,19 @@
         <v>80</v>
       </c>
       <c r="C149" t="n">
-        <v>12573</v>
+        <v>103</v>
       </c>
       <c r="D149" t="n">
-        <v>2482</v>
+        <v>78</v>
       </c>
       <c r="E149" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F149" t="n">
-        <v>19.7407142289032</v>
+        <v>75.72815533980582</v>
       </c>
       <c r="G149" t="n">
-        <v>228</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150">
@@ -3948,19 +3948,19 @@
         <v>90</v>
       </c>
       <c r="C150" t="n">
-        <v>14095</v>
+        <v>108</v>
       </c>
       <c r="D150" t="n">
-        <v>3524</v>
+        <v>86</v>
       </c>
       <c r="E150" t="n">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="F150" t="n">
-        <v>25.00177367860944</v>
+        <v>79.62962962962963</v>
       </c>
       <c r="G150" t="n">
-        <v>394</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151">
@@ -3971,19 +3971,19 @@
         <v>100</v>
       </c>
       <c r="C151" t="n">
-        <v>15719</v>
+        <v>128</v>
       </c>
       <c r="D151" t="n">
-        <v>4363</v>
+        <v>111</v>
       </c>
       <c r="E151" t="n">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="F151" t="n">
-        <v>27.75621858896876</v>
+        <v>86.71875</v>
       </c>
       <c r="G151" t="n">
-        <v>521</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152">
@@ -3994,16 +3994,16 @@
         <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>1531</v>
+        <v>11</v>
       </c>
       <c r="D152" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="E152" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F152" t="n">
-        <v>5.878510777269758</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4017,19 +4017,19 @@
         <v>20</v>
       </c>
       <c r="C153" t="n">
-        <v>3089</v>
+        <v>21</v>
       </c>
       <c r="D153" t="n">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="E153" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F153" t="n">
-        <v>8.449336354807381</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G153" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -4040,19 +4040,19 @@
         <v>30</v>
       </c>
       <c r="C154" t="n">
-        <v>4656</v>
+        <v>43</v>
       </c>
       <c r="D154" t="n">
-        <v>582</v>
+        <v>35</v>
       </c>
       <c r="E154" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F154" t="n">
-        <v>12.5</v>
+        <v>81.3953488372093</v>
       </c>
       <c r="G154" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155">
@@ -4063,19 +4063,19 @@
         <v>40</v>
       </c>
       <c r="C155" t="n">
-        <v>6225</v>
+        <v>43</v>
       </c>
       <c r="D155" t="n">
-        <v>926</v>
+        <v>33</v>
       </c>
       <c r="E155" t="n">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F155" t="n">
-        <v>14.87550200803213</v>
+        <v>76.74418604651163</v>
       </c>
       <c r="G155" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156">
@@ -4086,19 +4086,19 @@
         <v>50</v>
       </c>
       <c r="C156" t="n">
-        <v>7736</v>
+        <v>57</v>
       </c>
       <c r="D156" t="n">
-        <v>1170</v>
+        <v>45</v>
       </c>
       <c r="E156" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F156" t="n">
-        <v>15.12409513960703</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="G156" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="157">
@@ -4109,19 +4109,19 @@
         <v>60</v>
       </c>
       <c r="C157" t="n">
-        <v>9319</v>
+        <v>81</v>
       </c>
       <c r="D157" t="n">
-        <v>1580</v>
+        <v>70</v>
       </c>
       <c r="E157" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F157" t="n">
-        <v>16.95460886361197</v>
+        <v>86.41975308641975</v>
       </c>
       <c r="G157" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158">
@@ -4132,19 +4132,19 @@
         <v>70</v>
       </c>
       <c r="C158" t="n">
-        <v>10938</v>
+        <v>86</v>
       </c>
       <c r="D158" t="n">
-        <v>2456</v>
+        <v>64</v>
       </c>
       <c r="E158" t="n">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="F158" t="n">
-        <v>22.45383068202597</v>
+        <v>74.41860465116279</v>
       </c>
       <c r="G158" t="n">
-        <v>277</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159">
@@ -4155,19 +4155,19 @@
         <v>80</v>
       </c>
       <c r="C159" t="n">
-        <v>12462</v>
+        <v>97</v>
       </c>
       <c r="D159" t="n">
-        <v>2503</v>
+        <v>81</v>
       </c>
       <c r="E159" t="n">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="F159" t="n">
-        <v>20.08505857807735</v>
+        <v>83.50515463917526</v>
       </c>
       <c r="G159" t="n">
-        <v>331</v>
+        <v>239</v>
       </c>
     </row>
     <row r="160">
@@ -4178,19 +4178,19 @@
         <v>90</v>
       </c>
       <c r="C160" t="n">
-        <v>14074</v>
+        <v>125</v>
       </c>
       <c r="D160" t="n">
-        <v>3241</v>
+        <v>109</v>
       </c>
       <c r="E160" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="F160" t="n">
-        <v>23.02827909620577</v>
+        <v>87.2</v>
       </c>
       <c r="G160" t="n">
-        <v>472</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161">
@@ -4201,19 +4201,19 @@
         <v>100</v>
       </c>
       <c r="C161" t="n">
-        <v>15609</v>
+        <v>118</v>
       </c>
       <c r="D161" t="n">
-        <v>4208</v>
+        <v>89</v>
       </c>
       <c r="E161" t="n">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F161" t="n">
-        <v>26.95880581715677</v>
+        <v>75.42372881355932</v>
       </c>
       <c r="G161" t="n">
-        <v>659</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162">
@@ -4224,16 +4224,16 @@
         <v>10</v>
       </c>
       <c r="C162" t="n">
-        <v>1514</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E162" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F162" t="n">
-        <v>3.764861294583884</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4247,19 +4247,19 @@
         <v>20</v>
       </c>
       <c r="C163" t="n">
-        <v>3077</v>
+        <v>21</v>
       </c>
       <c r="D163" t="n">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="E163" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F163" t="n">
-        <v>5.654858628534287</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -4270,19 +4270,19 @@
         <v>30</v>
       </c>
       <c r="C164" t="n">
-        <v>4636</v>
+        <v>39</v>
       </c>
       <c r="D164" t="n">
-        <v>468</v>
+        <v>26</v>
       </c>
       <c r="E164" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F164" t="n">
-        <v>10.09490940465919</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G164" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165">
@@ -4293,19 +4293,19 @@
         <v>40</v>
       </c>
       <c r="C165" t="n">
-        <v>6178</v>
+        <v>43</v>
       </c>
       <c r="D165" t="n">
-        <v>571</v>
+        <v>34</v>
       </c>
       <c r="E165" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F165" t="n">
-        <v>9.242473292327615</v>
+        <v>79.06976744186046</v>
       </c>
       <c r="G165" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166">
@@ -4316,19 +4316,19 @@
         <v>50</v>
       </c>
       <c r="C166" t="n">
-        <v>7755</v>
+        <v>63</v>
       </c>
       <c r="D166" t="n">
-        <v>1205</v>
+        <v>52</v>
       </c>
       <c r="E166" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F166" t="n">
-        <v>15.53836234687299</v>
+        <v>82.53968253968253</v>
       </c>
       <c r="G166" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="167">
@@ -4339,19 +4339,19 @@
         <v>60</v>
       </c>
       <c r="C167" t="n">
-        <v>9318</v>
+        <v>78</v>
       </c>
       <c r="D167" t="n">
-        <v>1604</v>
+        <v>56</v>
       </c>
       <c r="E167" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F167" t="n">
-        <v>17.21399441940331</v>
+        <v>71.7948717948718</v>
       </c>
       <c r="G167" t="n">
-        <v>192</v>
+        <v>85</v>
       </c>
     </row>
     <row r="168">
@@ -4362,19 +4362,19 @@
         <v>70</v>
       </c>
       <c r="C168" t="n">
-        <v>10884</v>
+        <v>99</v>
       </c>
       <c r="D168" t="n">
-        <v>1782</v>
+        <v>82</v>
       </c>
       <c r="E168" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F168" t="n">
-        <v>16.37265711135612</v>
+        <v>82.82828282828282</v>
       </c>
       <c r="G168" t="n">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="169">
@@ -4385,19 +4385,19 @@
         <v>80</v>
       </c>
       <c r="C169" t="n">
-        <v>12525</v>
+        <v>104</v>
       </c>
       <c r="D169" t="n">
-        <v>2529</v>
+        <v>78</v>
       </c>
       <c r="E169" t="n">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F169" t="n">
-        <v>20.19161676646707</v>
+        <v>75</v>
       </c>
       <c r="G169" t="n">
-        <v>374</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170">
@@ -4408,19 +4408,19 @@
         <v>90</v>
       </c>
       <c r="C170" t="n">
-        <v>14172</v>
+        <v>126</v>
       </c>
       <c r="D170" t="n">
-        <v>3067</v>
+        <v>103</v>
       </c>
       <c r="E170" t="n">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F170" t="n">
-        <v>21.64126446514253</v>
+        <v>81.74603174603175</v>
       </c>
       <c r="G170" t="n">
-        <v>543</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171">
@@ -4431,19 +4431,19 @@
         <v>100</v>
       </c>
       <c r="C171" t="n">
-        <v>15776</v>
+        <v>129</v>
       </c>
       <c r="D171" t="n">
-        <v>3660</v>
+        <v>115</v>
       </c>
       <c r="E171" t="n">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="F171" t="n">
-        <v>23.19979716024341</v>
+        <v>89.14728682170544</v>
       </c>
       <c r="G171" t="n">
-        <v>637</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172">
@@ -4454,16 +4454,16 @@
         <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>1536</v>
+        <v>12</v>
       </c>
       <c r="D172" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E172" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F172" t="n">
-        <v>5.989583333333334</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4477,19 +4477,19 @@
         <v>20</v>
       </c>
       <c r="C173" t="n">
-        <v>3102</v>
+        <v>21</v>
       </c>
       <c r="D173" t="n">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="E173" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F173" t="n">
-        <v>9.735654416505481</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G173" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
@@ -4500,19 +4500,19 @@
         <v>30</v>
       </c>
       <c r="C174" t="n">
-        <v>4669</v>
+        <v>35</v>
       </c>
       <c r="D174" t="n">
-        <v>522</v>
+        <v>22</v>
       </c>
       <c r="E174" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F174" t="n">
-        <v>11.18012422360249</v>
+        <v>62.85714285714285</v>
       </c>
       <c r="G174" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175">
@@ -4523,19 +4523,19 @@
         <v>40</v>
       </c>
       <c r="C175" t="n">
-        <v>6220</v>
+        <v>52</v>
       </c>
       <c r="D175" t="n">
-        <v>856</v>
+        <v>32</v>
       </c>
       <c r="E175" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F175" t="n">
-        <v>13.7620578778135</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="G175" t="n">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176">
@@ -4546,19 +4546,19 @@
         <v>50</v>
       </c>
       <c r="C176" t="n">
-        <v>7887</v>
+        <v>72</v>
       </c>
       <c r="D176" t="n">
-        <v>1240</v>
+        <v>54</v>
       </c>
       <c r="E176" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F176" t="n">
-        <v>15.72207429948016</v>
+        <v>75</v>
       </c>
       <c r="G176" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177">
@@ -4569,19 +4569,19 @@
         <v>60</v>
       </c>
       <c r="C177" t="n">
-        <v>9385</v>
+        <v>72</v>
       </c>
       <c r="D177" t="n">
-        <v>1705</v>
+        <v>51</v>
       </c>
       <c r="E177" t="n">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F177" t="n">
-        <v>18.16728822589238</v>
+        <v>70.83333333333334</v>
       </c>
       <c r="G177" t="n">
-        <v>235</v>
+        <v>133</v>
       </c>
     </row>
     <row r="178">
@@ -4592,19 +4592,19 @@
         <v>70</v>
       </c>
       <c r="C178" t="n">
-        <v>10814</v>
+        <v>88</v>
       </c>
       <c r="D178" t="n">
-        <v>2120</v>
+        <v>67</v>
       </c>
       <c r="E178" t="n">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="F178" t="n">
-        <v>19.60421675605696</v>
+        <v>76.13636363636364</v>
       </c>
       <c r="G178" t="n">
-        <v>384</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179">
@@ -4615,19 +4615,19 @@
         <v>80</v>
       </c>
       <c r="C179" t="n">
-        <v>12529</v>
+        <v>110</v>
       </c>
       <c r="D179" t="n">
-        <v>2504</v>
+        <v>95</v>
       </c>
       <c r="E179" t="n">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="F179" t="n">
-        <v>19.98563333067284</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="G179" t="n">
-        <v>504</v>
+        <v>264</v>
       </c>
     </row>
     <row r="180">
@@ -4638,19 +4638,19 @@
         <v>90</v>
       </c>
       <c r="C180" t="n">
-        <v>14253</v>
+        <v>129</v>
       </c>
       <c r="D180" t="n">
-        <v>3718</v>
+        <v>97</v>
       </c>
       <c r="E180" t="n">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="F180" t="n">
-        <v>26.08573633620992</v>
+        <v>75.1937984496124</v>
       </c>
       <c r="G180" t="n">
-        <v>790</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181">
@@ -4661,19 +4661,19 @@
         <v>100</v>
       </c>
       <c r="C181" t="n">
-        <v>15667</v>
+        <v>153</v>
       </c>
       <c r="D181" t="n">
-        <v>3783</v>
+        <v>128</v>
       </c>
       <c r="E181" t="n">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="F181" t="n">
-        <v>24.14629475968596</v>
+        <v>83.66013071895425</v>
       </c>
       <c r="G181" t="n">
-        <v>928</v>
+        <v>530</v>
       </c>
     </row>
     <row r="182">
@@ -4684,16 +4684,16 @@
         <v>10</v>
       </c>
       <c r="C182" t="n">
-        <v>1560</v>
+        <v>11</v>
       </c>
       <c r="D182" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E182" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F182" t="n">
-        <v>4.102564102564102</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -4707,19 +4707,19 @@
         <v>20</v>
       </c>
       <c r="C183" t="n">
-        <v>3102</v>
+        <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="E183" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F183" t="n">
-        <v>6.350741457124435</v>
+        <v>84</v>
       </c>
       <c r="G183" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184">
@@ -4730,19 +4730,19 @@
         <v>30</v>
       </c>
       <c r="C184" t="n">
-        <v>4658</v>
+        <v>34</v>
       </c>
       <c r="D184" t="n">
-        <v>424</v>
+        <v>27</v>
       </c>
       <c r="E184" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F184" t="n">
-        <v>9.102619149849721</v>
+        <v>79.41176470588235</v>
       </c>
       <c r="G184" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185">
@@ -4753,19 +4753,19 @@
         <v>40</v>
       </c>
       <c r="C185" t="n">
-        <v>6270</v>
+        <v>45</v>
       </c>
       <c r="D185" t="n">
-        <v>756</v>
+        <v>32</v>
       </c>
       <c r="E185" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F185" t="n">
-        <v>12.05741626794258</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="G185" t="n">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186">
@@ -4776,19 +4776,19 @@
         <v>50</v>
       </c>
       <c r="C186" t="n">
-        <v>7761</v>
+        <v>64</v>
       </c>
       <c r="D186" t="n">
-        <v>1046</v>
+        <v>41</v>
       </c>
       <c r="E186" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F186" t="n">
-        <v>13.47764463342353</v>
+        <v>64.0625</v>
       </c>
       <c r="G186" t="n">
-        <v>182</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187">
@@ -4799,19 +4799,19 @@
         <v>60</v>
       </c>
       <c r="C187" t="n">
-        <v>9337</v>
+        <v>71</v>
       </c>
       <c r="D187" t="n">
-        <v>1428</v>
+        <v>48</v>
       </c>
       <c r="E187" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F187" t="n">
-        <v>15.29399164613902</v>
+        <v>67.6056338028169</v>
       </c>
       <c r="G187" t="n">
-        <v>287</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188">
@@ -4822,19 +4822,19 @@
         <v>70</v>
       </c>
       <c r="C188" t="n">
-        <v>10951</v>
+        <v>94</v>
       </c>
       <c r="D188" t="n">
-        <v>1888</v>
+        <v>77</v>
       </c>
       <c r="E188" t="n">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F188" t="n">
-        <v>17.24043466350105</v>
+        <v>81.91489361702128</v>
       </c>
       <c r="G188" t="n">
-        <v>422</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189">
@@ -4845,19 +4845,19 @@
         <v>80</v>
       </c>
       <c r="C189" t="n">
-        <v>12498</v>
+        <v>109</v>
       </c>
       <c r="D189" t="n">
-        <v>2122</v>
+        <v>82</v>
       </c>
       <c r="E189" t="n">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="F189" t="n">
-        <v>16.97871659465514</v>
+        <v>75.22935779816514</v>
       </c>
       <c r="G189" t="n">
-        <v>473</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190">
@@ -4868,19 +4868,19 @@
         <v>90</v>
       </c>
       <c r="C190" t="n">
-        <v>14153</v>
+        <v>125</v>
       </c>
       <c r="D190" t="n">
-        <v>2740</v>
+        <v>100</v>
       </c>
       <c r="E190" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="F190" t="n">
-        <v>19.35985303469229</v>
+        <v>80</v>
       </c>
       <c r="G190" t="n">
-        <v>639</v>
+        <v>358</v>
       </c>
     </row>
     <row r="191">
@@ -4891,19 +4891,19 @@
         <v>100</v>
       </c>
       <c r="C191" t="n">
-        <v>15760</v>
+        <v>141</v>
       </c>
       <c r="D191" t="n">
-        <v>3623</v>
+        <v>113</v>
       </c>
       <c r="E191" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="F191" t="n">
-        <v>22.98857868020304</v>
+        <v>80.1418439716312</v>
       </c>
       <c r="G191" t="n">
-        <v>938</v>
+        <v>369</v>
       </c>
     </row>
     <row r="192">
@@ -4914,16 +4914,16 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>1540</v>
+        <v>10</v>
       </c>
       <c r="D192" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F192" t="n">
-        <v>2.272727272727273</v>
+        <v>60</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -4937,19 +4937,19 @@
         <v>20</v>
       </c>
       <c r="C193" t="n">
-        <v>3109</v>
+        <v>24</v>
       </c>
       <c r="D193" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="E193" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F193" t="n">
-        <v>7.719523962688967</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G193" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
@@ -4960,19 +4960,19 @@
         <v>30</v>
       </c>
       <c r="C194" t="n">
-        <v>4703</v>
+        <v>36</v>
       </c>
       <c r="D194" t="n">
-        <v>525</v>
+        <v>24</v>
       </c>
       <c r="E194" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="F194" t="n">
-        <v>11.16308739102701</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G194" t="n">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195">
@@ -4983,19 +4983,19 @@
         <v>40</v>
       </c>
       <c r="C195" t="n">
-        <v>6299</v>
+        <v>52</v>
       </c>
       <c r="D195" t="n">
-        <v>838</v>
+        <v>25</v>
       </c>
       <c r="E195" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F195" t="n">
-        <v>13.30369899984125</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="G195" t="n">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196">
@@ -5006,19 +5006,19 @@
         <v>50</v>
       </c>
       <c r="C196" t="n">
-        <v>7831</v>
+        <v>66</v>
       </c>
       <c r="D196" t="n">
-        <v>1004</v>
+        <v>52</v>
       </c>
       <c r="E196" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F196" t="n">
-        <v>12.82084025028732</v>
+        <v>78.78787878787878</v>
       </c>
       <c r="G196" t="n">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197">
@@ -5029,19 +5029,19 @@
         <v>60</v>
       </c>
       <c r="C197" t="n">
-        <v>9379</v>
+        <v>81</v>
       </c>
       <c r="D197" t="n">
-        <v>1467</v>
+        <v>58</v>
       </c>
       <c r="E197" t="n">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="F197" t="n">
-        <v>15.64132636741657</v>
+        <v>71.60493827160494</v>
       </c>
       <c r="G197" t="n">
-        <v>352</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198">
@@ -5052,19 +5052,19 @@
         <v>70</v>
       </c>
       <c r="C198" t="n">
-        <v>10963</v>
+        <v>104</v>
       </c>
       <c r="D198" t="n">
-        <v>2118</v>
+        <v>82</v>
       </c>
       <c r="E198" t="n">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="F198" t="n">
-        <v>19.31952932591444</v>
+        <v>78.84615384615384</v>
       </c>
       <c r="G198" t="n">
-        <v>539</v>
+        <v>351</v>
       </c>
     </row>
     <row r="199">
@@ -5075,19 +5075,19 @@
         <v>80</v>
       </c>
       <c r="C199" t="n">
-        <v>12593</v>
+        <v>98</v>
       </c>
       <c r="D199" t="n">
-        <v>2180</v>
+        <v>64</v>
       </c>
       <c r="E199" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="F199" t="n">
-        <v>17.31120463749702</v>
+        <v>65.30612244897959</v>
       </c>
       <c r="G199" t="n">
-        <v>630</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200">
@@ -5098,19 +5098,19 @@
         <v>90</v>
       </c>
       <c r="C200" t="n">
-        <v>14065</v>
+        <v>128</v>
       </c>
       <c r="D200" t="n">
-        <v>2625</v>
+        <v>98</v>
       </c>
       <c r="E200" t="n">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F200" t="n">
-        <v>18.66334873800214</v>
+        <v>76.5625</v>
       </c>
       <c r="G200" t="n">
-        <v>751</v>
+        <v>298</v>
       </c>
     </row>
     <row r="201">
@@ -5121,19 +5121,19 @@
         <v>100</v>
       </c>
       <c r="C201" t="n">
-        <v>15659</v>
+        <v>167</v>
       </c>
       <c r="D201" t="n">
-        <v>2847</v>
+        <v>123</v>
       </c>
       <c r="E201" t="n">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="F201" t="n">
-        <v>18.18123762692381</v>
+        <v>73.65269461077844</v>
       </c>
       <c r="G201" t="n">
-        <v>838</v>
+        <v>462</v>
       </c>
     </row>
     <row r="202">
@@ -5144,19 +5144,19 @@
         <v>10</v>
       </c>
       <c r="C202" t="n">
-        <v>1568</v>
+        <v>13</v>
       </c>
       <c r="D202" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E202" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F202" t="n">
-        <v>2.487244897959183</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203">
@@ -5167,19 +5167,19 @@
         <v>20</v>
       </c>
       <c r="C203" t="n">
-        <v>3099</v>
+        <v>24</v>
       </c>
       <c r="D203" t="n">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="E203" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F203" t="n">
-        <v>8.583414004517586</v>
+        <v>62.5</v>
       </c>
       <c r="G203" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204">
@@ -5190,19 +5190,19 @@
         <v>30</v>
       </c>
       <c r="C204" t="n">
-        <v>4664</v>
+        <v>35</v>
       </c>
       <c r="D204" t="n">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="E204" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>10.29159519725557</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G204" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205">
@@ -5213,19 +5213,19 @@
         <v>40</v>
       </c>
       <c r="C205" t="n">
-        <v>6248</v>
+        <v>53</v>
       </c>
       <c r="D205" t="n">
-        <v>829</v>
+        <v>35</v>
       </c>
       <c r="E205" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F205" t="n">
-        <v>13.26824583866837</v>
+        <v>66.0377358490566</v>
       </c>
       <c r="G205" t="n">
-        <v>173</v>
+        <v>54</v>
       </c>
     </row>
     <row r="206">
@@ -5236,19 +5236,19 @@
         <v>50</v>
       </c>
       <c r="C206" t="n">
-        <v>7791</v>
+        <v>75</v>
       </c>
       <c r="D206" t="n">
-        <v>1054</v>
+        <v>55</v>
       </c>
       <c r="E206" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F206" t="n">
-        <v>13.52843024002054</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="G206" t="n">
-        <v>243</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207">
@@ -5259,19 +5259,19 @@
         <v>60</v>
       </c>
       <c r="C207" t="n">
-        <v>9398</v>
+        <v>90</v>
       </c>
       <c r="D207" t="n">
-        <v>1424</v>
+        <v>62</v>
       </c>
       <c r="E207" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F207" t="n">
-        <v>15.1521600340498</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="G207" t="n">
-        <v>403</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208">
@@ -5282,19 +5282,19 @@
         <v>70</v>
       </c>
       <c r="C208" t="n">
-        <v>10963</v>
+        <v>94</v>
       </c>
       <c r="D208" t="n">
-        <v>1715</v>
+        <v>78</v>
       </c>
       <c r="E208" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="F208" t="n">
-        <v>15.64352823132354</v>
+        <v>82.97872340425532</v>
       </c>
       <c r="G208" t="n">
-        <v>498</v>
+        <v>344</v>
       </c>
     </row>
     <row r="209">
@@ -5305,19 +5305,19 @@
         <v>80</v>
       </c>
       <c r="C209" t="n">
-        <v>12571</v>
+        <v>110</v>
       </c>
       <c r="D209" t="n">
-        <v>1959</v>
+        <v>77</v>
       </c>
       <c r="E209" t="n">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="F209" t="n">
-        <v>15.58348580065229</v>
+        <v>70</v>
       </c>
       <c r="G209" t="n">
-        <v>644</v>
+        <v>312</v>
       </c>
     </row>
     <row r="210">
@@ -5328,19 +5328,19 @@
         <v>90</v>
       </c>
       <c r="C210" t="n">
-        <v>14042</v>
+        <v>126</v>
       </c>
       <c r="D210" t="n">
-        <v>2219</v>
+        <v>91</v>
       </c>
       <c r="E210" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="F210" t="n">
-        <v>15.80259222333001</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="G210" t="n">
-        <v>712</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211">
@@ -5351,19 +5351,19 @@
         <v>100</v>
       </c>
       <c r="C211" t="n">
-        <v>15675</v>
+        <v>144</v>
       </c>
       <c r="D211" t="n">
-        <v>2596</v>
+        <v>104</v>
       </c>
       <c r="E211" t="n">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="F211" t="n">
-        <v>16.56140350877193</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="G211" t="n">
-        <v>908</v>
+        <v>475</v>
       </c>
     </row>
     <row r="212">
@@ -5374,19 +5374,19 @@
         <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>1513</v>
+        <v>10</v>
       </c>
       <c r="D212" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E212" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F212" t="n">
-        <v>1.520158625247852</v>
+        <v>40</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -5397,19 +5397,19 @@
         <v>20</v>
       </c>
       <c r="C213" t="n">
-        <v>3130</v>
+        <v>23</v>
       </c>
       <c r="D213" t="n">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="E213" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F213" t="n">
-        <v>7.539936102236422</v>
+        <v>60.86956521739131</v>
       </c>
       <c r="G213" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214">
@@ -5420,19 +5420,19 @@
         <v>30</v>
       </c>
       <c r="C214" t="n">
-        <v>4649</v>
+        <v>40</v>
       </c>
       <c r="D214" t="n">
-        <v>408</v>
+        <v>23</v>
       </c>
       <c r="E214" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F214" t="n">
-        <v>8.776080877608088</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="G214" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215">
@@ -5443,19 +5443,19 @@
         <v>40</v>
       </c>
       <c r="C215" t="n">
-        <v>6265</v>
+        <v>48</v>
       </c>
       <c r="D215" t="n">
-        <v>574</v>
+        <v>32</v>
       </c>
       <c r="E215" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F215" t="n">
-        <v>9.162011173184357</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G215" t="n">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="216">
@@ -5466,19 +5466,19 @@
         <v>50</v>
       </c>
       <c r="C216" t="n">
-        <v>7841</v>
+        <v>61</v>
       </c>
       <c r="D216" t="n">
-        <v>974</v>
+        <v>40</v>
       </c>
       <c r="E216" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F216" t="n">
-        <v>12.42188496365259</v>
+        <v>65.57377049180327</v>
       </c>
       <c r="G216" t="n">
-        <v>265</v>
+        <v>106</v>
       </c>
     </row>
     <row r="217">
@@ -5489,19 +5489,19 @@
         <v>60</v>
       </c>
       <c r="C217" t="n">
-        <v>9357</v>
+        <v>87</v>
       </c>
       <c r="D217" t="n">
-        <v>1286</v>
+        <v>75</v>
       </c>
       <c r="E217" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F217" t="n">
-        <v>13.74372127818745</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="G217" t="n">
-        <v>394</v>
+        <v>299</v>
       </c>
     </row>
     <row r="218">
@@ -5512,19 +5512,19 @@
         <v>70</v>
       </c>
       <c r="C218" t="n">
-        <v>11024</v>
+        <v>104</v>
       </c>
       <c r="D218" t="n">
-        <v>1624</v>
+        <v>78</v>
       </c>
       <c r="E218" t="n">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F218" t="n">
-        <v>14.73149492017417</v>
+        <v>75</v>
       </c>
       <c r="G218" t="n">
-        <v>534</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219">
@@ -5535,19 +5535,19 @@
         <v>80</v>
       </c>
       <c r="C219" t="n">
-        <v>12514</v>
+        <v>105</v>
       </c>
       <c r="D219" t="n">
-        <v>1867</v>
+        <v>78</v>
       </c>
       <c r="E219" t="n">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="F219" t="n">
-        <v>14.91929039475787</v>
+        <v>74.28571428571429</v>
       </c>
       <c r="G219" t="n">
-        <v>622</v>
+        <v>309</v>
       </c>
     </row>
     <row r="220">
@@ -5558,19 +5558,19 @@
         <v>90</v>
       </c>
       <c r="C220" t="n">
-        <v>14077</v>
+        <v>140</v>
       </c>
       <c r="D220" t="n">
-        <v>2401</v>
+        <v>94</v>
       </c>
       <c r="E220" t="n">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="F220" t="n">
-        <v>17.05619094977623</v>
+        <v>67.14285714285714</v>
       </c>
       <c r="G220" t="n">
-        <v>927</v>
+        <v>370</v>
       </c>
     </row>
     <row r="221">
@@ -5581,19 +5581,19 @@
         <v>100</v>
       </c>
       <c r="C221" t="n">
-        <v>15654</v>
+        <v>151</v>
       </c>
       <c r="D221" t="n">
-        <v>2328</v>
+        <v>107</v>
       </c>
       <c r="E221" t="n">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F221" t="n">
-        <v>14.87159831353009</v>
+        <v>70.86092715231787</v>
       </c>
       <c r="G221" t="n">
-        <v>919</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222">
@@ -5604,19 +5604,19 @@
         <v>10</v>
       </c>
       <c r="C222" t="n">
-        <v>1578</v>
+        <v>11</v>
       </c>
       <c r="D222" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F222" t="n">
-        <v>5.893536121673003</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="G222" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5627,19 +5627,19 @@
         <v>20</v>
       </c>
       <c r="C223" t="n">
-        <v>3112</v>
+        <v>20</v>
       </c>
       <c r="D223" t="n">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="E223" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F223" t="n">
-        <v>5.205655526992288</v>
+        <v>60</v>
       </c>
       <c r="G223" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224">
@@ -5650,19 +5650,19 @@
         <v>30</v>
       </c>
       <c r="C224" t="n">
-        <v>4646</v>
+        <v>36</v>
       </c>
       <c r="D224" t="n">
-        <v>497</v>
+        <v>26</v>
       </c>
       <c r="E224" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F224" t="n">
-        <v>10.69737408523461</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="G224" t="n">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="225">
@@ -5673,19 +5673,19 @@
         <v>40</v>
       </c>
       <c r="C225" t="n">
-        <v>6292</v>
+        <v>60</v>
       </c>
       <c r="D225" t="n">
-        <v>620</v>
+        <v>41</v>
       </c>
       <c r="E225" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F225" t="n">
-        <v>9.853782581055308</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="G225" t="n">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="226">
@@ -5696,19 +5696,19 @@
         <v>50</v>
       </c>
       <c r="C226" t="n">
-        <v>7907</v>
+        <v>71</v>
       </c>
       <c r="D226" t="n">
-        <v>839</v>
+        <v>53</v>
       </c>
       <c r="E226" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F226" t="n">
-        <v>10.61085114455546</v>
+        <v>74.64788732394366</v>
       </c>
       <c r="G226" t="n">
-        <v>276</v>
+        <v>207</v>
       </c>
     </row>
     <row r="227">
@@ -5719,19 +5719,19 @@
         <v>60</v>
       </c>
       <c r="C227" t="n">
-        <v>9402</v>
+        <v>88</v>
       </c>
       <c r="D227" t="n">
-        <v>1097</v>
+        <v>60</v>
       </c>
       <c r="E227" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F227" t="n">
-        <v>11.66773027015529</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="G227" t="n">
-        <v>343</v>
+        <v>297</v>
       </c>
     </row>
     <row r="228">
@@ -5742,19 +5742,19 @@
         <v>70</v>
       </c>
       <c r="C228" t="n">
-        <v>11099</v>
+        <v>105</v>
       </c>
       <c r="D228" t="n">
-        <v>1462</v>
+        <v>71</v>
       </c>
       <c r="E228" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="F228" t="n">
-        <v>13.17235787007839</v>
+        <v>67.61904761904762</v>
       </c>
       <c r="G228" t="n">
-        <v>552</v>
+        <v>325</v>
       </c>
     </row>
     <row r="229">
@@ -5765,19 +5765,19 @@
         <v>80</v>
       </c>
       <c r="C229" t="n">
-        <v>12596</v>
+        <v>120</v>
       </c>
       <c r="D229" t="n">
-        <v>1556</v>
+        <v>94</v>
       </c>
       <c r="E229" t="n">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F229" t="n">
-        <v>12.3531279771356</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="G229" t="n">
-        <v>628</v>
+        <v>462</v>
       </c>
     </row>
     <row r="230">
@@ -5788,19 +5788,19 @@
         <v>90</v>
       </c>
       <c r="C230" t="n">
-        <v>14117</v>
+        <v>132</v>
       </c>
       <c r="D230" t="n">
-        <v>2244</v>
+        <v>76</v>
       </c>
       <c r="E230" t="n">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="F230" t="n">
-        <v>15.8957285542254</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="G230" t="n">
-        <v>977</v>
+        <v>329</v>
       </c>
     </row>
     <row r="231">
@@ -5811,19 +5811,19 @@
         <v>100</v>
       </c>
       <c r="C231" t="n">
-        <v>15661</v>
+        <v>136</v>
       </c>
       <c r="D231" t="n">
-        <v>2141</v>
+        <v>73</v>
       </c>
       <c r="E231" t="n">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="F231" t="n">
-        <v>13.67090224123619</v>
+        <v>53.67647058823529</v>
       </c>
       <c r="G231" t="n">
-        <v>887</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232">
@@ -5834,19 +5834,19 @@
         <v>10</v>
       </c>
       <c r="C232" t="n">
-        <v>1529</v>
+        <v>12</v>
       </c>
       <c r="D232" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E232" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F232" t="n">
-        <v>3.335513407455854</v>
+        <v>25</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5857,19 +5857,19 @@
         <v>20</v>
       </c>
       <c r="C233" t="n">
-        <v>3102</v>
+        <v>24</v>
       </c>
       <c r="D233" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E233" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>6.447453255963895</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G233" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234">
@@ -5880,19 +5880,19 @@
         <v>30</v>
       </c>
       <c r="C234" t="n">
-        <v>4726</v>
+        <v>38</v>
       </c>
       <c r="D234" t="n">
-        <v>317</v>
+        <v>28</v>
       </c>
       <c r="E234" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F234" t="n">
-        <v>6.707575116377486</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="G234" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235">
@@ -5903,19 +5903,19 @@
         <v>40</v>
       </c>
       <c r="C235" t="n">
-        <v>6262</v>
+        <v>52</v>
       </c>
       <c r="D235" t="n">
-        <v>681</v>
+        <v>30</v>
       </c>
       <c r="E235" t="n">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F235" t="n">
-        <v>10.87511977004152</v>
+        <v>57.69230769230769</v>
       </c>
       <c r="G235" t="n">
-        <v>261</v>
+        <v>86</v>
       </c>
     </row>
     <row r="236">
@@ -5926,19 +5926,19 @@
         <v>50</v>
       </c>
       <c r="C236" t="n">
-        <v>7802</v>
+        <v>70</v>
       </c>
       <c r="D236" t="n">
-        <v>970</v>
+        <v>57</v>
       </c>
       <c r="E236" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F236" t="n">
-        <v>12.43270956165086</v>
+        <v>81.42857142857143</v>
       </c>
       <c r="G236" t="n">
-        <v>379</v>
+        <v>212</v>
       </c>
     </row>
     <row r="237">
@@ -5949,19 +5949,19 @@
         <v>60</v>
       </c>
       <c r="C237" t="n">
-        <v>9370</v>
+        <v>97</v>
       </c>
       <c r="D237" t="n">
-        <v>997</v>
+        <v>67</v>
       </c>
       <c r="E237" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F237" t="n">
-        <v>10.64034151547492</v>
+        <v>69.0721649484536</v>
       </c>
       <c r="G237" t="n">
-        <v>388</v>
+        <v>271</v>
       </c>
     </row>
     <row r="238">
@@ -5972,19 +5972,19 @@
         <v>70</v>
       </c>
       <c r="C238" t="n">
-        <v>11027</v>
+        <v>106</v>
       </c>
       <c r="D238" t="n">
-        <v>1440</v>
+        <v>73</v>
       </c>
       <c r="E238" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="F238" t="n">
-        <v>13.05885553641063</v>
+        <v>68.86792452830188</v>
       </c>
       <c r="G238" t="n">
-        <v>709</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239">
@@ -5995,19 +5995,19 @@
         <v>80</v>
       </c>
       <c r="C239" t="n">
-        <v>12512</v>
+        <v>120</v>
       </c>
       <c r="D239" t="n">
-        <v>1726</v>
+        <v>86</v>
       </c>
       <c r="E239" t="n">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="F239" t="n">
-        <v>13.79475703324808</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="G239" t="n">
-        <v>825</v>
+        <v>318</v>
       </c>
     </row>
     <row r="240">
@@ -6018,19 +6018,19 @@
         <v>90</v>
       </c>
       <c r="C240" t="n">
-        <v>14159</v>
+        <v>141</v>
       </c>
       <c r="D240" t="n">
-        <v>1760</v>
+        <v>98</v>
       </c>
       <c r="E240" t="n">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="F240" t="n">
-        <v>12.43025637403771</v>
+        <v>69.50354609929079</v>
       </c>
       <c r="G240" t="n">
-        <v>859</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241">
@@ -6041,19 +6041,19 @@
         <v>100</v>
       </c>
       <c r="C241" t="n">
-        <v>15746</v>
+        <v>175</v>
       </c>
       <c r="D241" t="n">
-        <v>2415</v>
+        <v>123</v>
       </c>
       <c r="E241" t="n">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="F241" t="n">
-        <v>15.33722850247682</v>
+        <v>70.28571428571428</v>
       </c>
       <c r="G241" t="n">
-        <v>1172</v>
+        <v>626</v>
       </c>
     </row>
     <row r="242">
@@ -6064,19 +6064,19 @@
         <v>10</v>
       </c>
       <c r="C242" t="n">
-        <v>1555</v>
+        <v>11</v>
       </c>
       <c r="D242" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E242" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F242" t="n">
-        <v>3.987138263665595</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="G242" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -6087,19 +6087,19 @@
         <v>20</v>
       </c>
       <c r="C243" t="n">
-        <v>3142</v>
+        <v>23</v>
       </c>
       <c r="D243" t="n">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="E243" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F243" t="n">
-        <v>7.065563335455124</v>
+        <v>60.86956521739131</v>
       </c>
       <c r="G243" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244">
@@ -6110,19 +6110,19 @@
         <v>30</v>
       </c>
       <c r="C244" t="n">
-        <v>4682</v>
+        <v>39</v>
       </c>
       <c r="D244" t="n">
-        <v>443</v>
+        <v>28</v>
       </c>
       <c r="E244" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F244" t="n">
-        <v>9.461768475010679</v>
+        <v>71.7948717948718</v>
       </c>
       <c r="G244" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245">
@@ -6133,19 +6133,19 @@
         <v>40</v>
       </c>
       <c r="C245" t="n">
-        <v>6263</v>
+        <v>50</v>
       </c>
       <c r="D245" t="n">
-        <v>619</v>
+        <v>35</v>
       </c>
       <c r="E245" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F245" t="n">
-        <v>9.883442439725371</v>
+        <v>70</v>
       </c>
       <c r="G245" t="n">
-        <v>234</v>
+        <v>155</v>
       </c>
     </row>
     <row r="246">
@@ -6156,19 +6156,19 @@
         <v>50</v>
       </c>
       <c r="C246" t="n">
-        <v>7856</v>
+        <v>74</v>
       </c>
       <c r="D246" t="n">
-        <v>863</v>
+        <v>54</v>
       </c>
       <c r="E246" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F246" t="n">
-        <v>10.98523421588595</v>
+        <v>72.97297297297297</v>
       </c>
       <c r="G246" t="n">
-        <v>409</v>
+        <v>229</v>
       </c>
     </row>
     <row r="247">
@@ -6179,19 +6179,19 @@
         <v>60</v>
       </c>
       <c r="C247" t="n">
-        <v>9452</v>
+        <v>94</v>
       </c>
       <c r="D247" t="n">
-        <v>954</v>
+        <v>70</v>
       </c>
       <c r="E247" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F247" t="n">
-        <v>10.09310198899704</v>
+        <v>74.46808510638297</v>
       </c>
       <c r="G247" t="n">
-        <v>440</v>
+        <v>291</v>
       </c>
     </row>
     <row r="248">
@@ -6202,19 +6202,19 @@
         <v>70</v>
       </c>
       <c r="C248" t="n">
-        <v>11041</v>
+        <v>97</v>
       </c>
       <c r="D248" t="n">
-        <v>1264</v>
+        <v>62</v>
       </c>
       <c r="E248" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F248" t="n">
-        <v>11.44823838420433</v>
+        <v>63.91752577319587</v>
       </c>
       <c r="G248" t="n">
-        <v>615</v>
+        <v>342</v>
       </c>
     </row>
     <row r="249">
@@ -6225,19 +6225,19 @@
         <v>80</v>
       </c>
       <c r="C249" t="n">
-        <v>12530</v>
+        <v>130</v>
       </c>
       <c r="D249" t="n">
-        <v>1556</v>
+        <v>97</v>
       </c>
       <c r="E249" t="n">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="F249" t="n">
-        <v>12.41819632881085</v>
+        <v>74.61538461538461</v>
       </c>
       <c r="G249" t="n">
-        <v>762</v>
+        <v>455</v>
       </c>
     </row>
     <row r="250">
@@ -6248,19 +6248,19 @@
         <v>90</v>
       </c>
       <c r="C250" t="n">
-        <v>14186</v>
+        <v>146</v>
       </c>
       <c r="D250" t="n">
-        <v>1697</v>
+        <v>105</v>
       </c>
       <c r="E250" t="n">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="F250" t="n">
-        <v>11.96249823769914</v>
+        <v>71.91780821917808</v>
       </c>
       <c r="G250" t="n">
-        <v>867</v>
+        <v>507</v>
       </c>
     </row>
     <row r="251">
@@ -6271,19 +6271,19 @@
         <v>100</v>
       </c>
       <c r="C251" t="n">
-        <v>15729</v>
+        <v>178</v>
       </c>
       <c r="D251" t="n">
-        <v>2092</v>
+        <v>111</v>
       </c>
       <c r="E251" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="F251" t="n">
-        <v>13.30027338038019</v>
+        <v>62.35955056179775</v>
       </c>
       <c r="G251" t="n">
-        <v>1116</v>
+        <v>660</v>
       </c>
     </row>
     <row r="252">
@@ -6294,19 +6294,19 @@
         <v>10</v>
       </c>
       <c r="C252" t="n">
-        <v>1530</v>
+        <v>13</v>
       </c>
       <c r="D252" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E252" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F252" t="n">
-        <v>4.183006535947712</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="G252" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253">
@@ -6317,19 +6317,19 @@
         <v>20</v>
       </c>
       <c r="C253" t="n">
-        <v>3154</v>
+        <v>21</v>
       </c>
       <c r="D253" t="n">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="E253" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F253" t="n">
-        <v>4.724159797083069</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="G253" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="254">
@@ -6340,19 +6340,19 @@
         <v>30</v>
       </c>
       <c r="C254" t="n">
-        <v>4686</v>
+        <v>40</v>
       </c>
       <c r="D254" t="n">
-        <v>394</v>
+        <v>25</v>
       </c>
       <c r="E254" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F254" t="n">
-        <v>8.408023900981647</v>
+        <v>62.5</v>
       </c>
       <c r="G254" t="n">
-        <v>155</v>
+        <v>67</v>
       </c>
     </row>
     <row r="255">
@@ -6363,19 +6363,19 @@
         <v>40</v>
       </c>
       <c r="C255" t="n">
-        <v>6319</v>
+        <v>55</v>
       </c>
       <c r="D255" t="n">
-        <v>563</v>
+        <v>33</v>
       </c>
       <c r="E255" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F255" t="n">
-        <v>8.909637600886217</v>
+        <v>60</v>
       </c>
       <c r="G255" t="n">
-        <v>264</v>
+        <v>134</v>
       </c>
     </row>
     <row r="256">
@@ -6386,19 +6386,19 @@
         <v>50</v>
       </c>
       <c r="C256" t="n">
-        <v>7900</v>
+        <v>64</v>
       </c>
       <c r="D256" t="n">
-        <v>906</v>
+        <v>38</v>
       </c>
       <c r="E256" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F256" t="n">
-        <v>11.46835443037975</v>
+        <v>59.375</v>
       </c>
       <c r="G256" t="n">
-        <v>462</v>
+        <v>159</v>
       </c>
     </row>
     <row r="257">
@@ -6409,19 +6409,19 @@
         <v>60</v>
       </c>
       <c r="C257" t="n">
-        <v>9401</v>
+        <v>91</v>
       </c>
       <c r="D257" t="n">
-        <v>895</v>
+        <v>65</v>
       </c>
       <c r="E257" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F257" t="n">
-        <v>9.520263801723221</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G257" t="n">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="258">
@@ -6432,19 +6432,19 @@
         <v>70</v>
       </c>
       <c r="C258" t="n">
-        <v>11017</v>
+        <v>115</v>
       </c>
       <c r="D258" t="n">
-        <v>1307</v>
+        <v>80</v>
       </c>
       <c r="E258" t="n">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="F258" t="n">
-        <v>11.86348370699828</v>
+        <v>69.56521739130434</v>
       </c>
       <c r="G258" t="n">
-        <v>680</v>
+        <v>429</v>
       </c>
     </row>
     <row r="259">
@@ -6455,19 +6455,19 @@
         <v>80</v>
       </c>
       <c r="C259" t="n">
-        <v>12672</v>
+        <v>127</v>
       </c>
       <c r="D259" t="n">
-        <v>1431</v>
+        <v>86</v>
       </c>
       <c r="E259" t="n">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="F259" t="n">
-        <v>11.29261363636364</v>
+        <v>67.71653543307087</v>
       </c>
       <c r="G259" t="n">
-        <v>818</v>
+        <v>484</v>
       </c>
     </row>
     <row r="260">
@@ -6478,19 +6478,19 @@
         <v>90</v>
       </c>
       <c r="C260" t="n">
-        <v>14318</v>
+        <v>144</v>
       </c>
       <c r="D260" t="n">
-        <v>1704</v>
+        <v>98</v>
       </c>
       <c r="E260" t="n">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="F260" t="n">
-        <v>11.90110350607627</v>
+        <v>68.05555555555556</v>
       </c>
       <c r="G260" t="n">
-        <v>1037</v>
+        <v>542</v>
       </c>
     </row>
     <row r="261">
@@ -6501,19 +6501,19 @@
         <v>100</v>
       </c>
       <c r="C261" t="n">
-        <v>15844</v>
+        <v>141</v>
       </c>
       <c r="D261" t="n">
-        <v>1965</v>
+        <v>90</v>
       </c>
       <c r="E261" t="n">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="F261" t="n">
-        <v>12.40217116889674</v>
+        <v>63.82978723404256</v>
       </c>
       <c r="G261" t="n">
-        <v>1182</v>
+        <v>403</v>
       </c>
     </row>
     <row r="262">
@@ -6524,19 +6524,19 @@
         <v>10</v>
       </c>
       <c r="C262" t="n">
-        <v>1536</v>
+        <v>11</v>
       </c>
       <c r="D262" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="E262" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F262" t="n">
-        <v>4.8828125</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="G262" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263">
@@ -6547,19 +6547,19 @@
         <v>20</v>
       </c>
       <c r="C263" t="n">
-        <v>3108</v>
+        <v>24</v>
       </c>
       <c r="D263" t="n">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="E263" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F263" t="n">
-        <v>5.212355212355212</v>
+        <v>62.5</v>
       </c>
       <c r="G263" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="264">
@@ -6570,19 +6570,19 @@
         <v>30</v>
       </c>
       <c r="C264" t="n">
-        <v>4665</v>
+        <v>41</v>
       </c>
       <c r="D264" t="n">
-        <v>349</v>
+        <v>30</v>
       </c>
       <c r="E264" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F264" t="n">
-        <v>7.481243301178993</v>
+        <v>73.17073170731707</v>
       </c>
       <c r="G264" t="n">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="265">
@@ -6593,19 +6593,19 @@
         <v>40</v>
       </c>
       <c r="C265" t="n">
-        <v>6315</v>
+        <v>56</v>
       </c>
       <c r="D265" t="n">
-        <v>635</v>
+        <v>35</v>
       </c>
       <c r="E265" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F265" t="n">
-        <v>10.05542359461599</v>
+        <v>62.5</v>
       </c>
       <c r="G265" t="n">
-        <v>330</v>
+        <v>171</v>
       </c>
     </row>
     <row r="266">
@@ -6616,19 +6616,19 @@
         <v>50</v>
       </c>
       <c r="C266" t="n">
-        <v>7727</v>
+        <v>75</v>
       </c>
       <c r="D266" t="n">
-        <v>557</v>
+        <v>53</v>
       </c>
       <c r="E266" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F266" t="n">
-        <v>7.20848971140158</v>
+        <v>70.66666666666667</v>
       </c>
       <c r="G266" t="n">
-        <v>302</v>
+        <v>196</v>
       </c>
     </row>
     <row r="267">
@@ -6639,19 +6639,19 @@
         <v>60</v>
       </c>
       <c r="C267" t="n">
-        <v>9355</v>
+        <v>90</v>
       </c>
       <c r="D267" t="n">
-        <v>922</v>
+        <v>54</v>
       </c>
       <c r="E267" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F267" t="n">
-        <v>9.85569214323891</v>
+        <v>60</v>
       </c>
       <c r="G267" t="n">
-        <v>540</v>
+        <v>355</v>
       </c>
     </row>
     <row r="268">
@@ -6662,19 +6662,19 @@
         <v>70</v>
       </c>
       <c r="C268" t="n">
-        <v>10963</v>
+        <v>113</v>
       </c>
       <c r="D268" t="n">
-        <v>1295</v>
+        <v>81</v>
       </c>
       <c r="E268" t="n">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="F268" t="n">
-        <v>11.81246009304023</v>
+        <v>71.68141592920354</v>
       </c>
       <c r="G268" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
     </row>
     <row r="269">
@@ -6685,19 +6685,19 @@
         <v>80</v>
       </c>
       <c r="C269" t="n">
-        <v>12579</v>
+        <v>114</v>
       </c>
       <c r="D269" t="n">
-        <v>1173</v>
+        <v>71</v>
       </c>
       <c r="E269" t="n">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="F269" t="n">
-        <v>9.325065585499642</v>
+        <v>62.28070175438597</v>
       </c>
       <c r="G269" t="n">
-        <v>754</v>
+        <v>405</v>
       </c>
     </row>
     <row r="270">
@@ -6708,19 +6708,19 @@
         <v>90</v>
       </c>
       <c r="C270" t="n">
-        <v>14047</v>
+        <v>163</v>
       </c>
       <c r="D270" t="n">
-        <v>1325</v>
+        <v>98</v>
       </c>
       <c r="E270" t="n">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F270" t="n">
-        <v>9.432619064568946</v>
+        <v>60.12269938650306</v>
       </c>
       <c r="G270" t="n">
-        <v>835</v>
+        <v>524</v>
       </c>
     </row>
     <row r="271">
@@ -6731,19 +6731,19 @@
         <v>100</v>
       </c>
       <c r="C271" t="n">
-        <v>15711</v>
+        <v>161</v>
       </c>
       <c r="D271" t="n">
-        <v>1629</v>
+        <v>110</v>
       </c>
       <c r="E271" t="n">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="F271" t="n">
-        <v>10.36853160206225</v>
+        <v>68.32298136645963</v>
       </c>
       <c r="G271" t="n">
-        <v>1056</v>
+        <v>698</v>
       </c>
     </row>
     <row r="272">
@@ -6754,19 +6754,19 @@
         <v>10</v>
       </c>
       <c r="C272" t="n">
-        <v>1579</v>
+        <v>18</v>
       </c>
       <c r="D272" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E272" t="n">
         <v>14</v>
       </c>
       <c r="F272" t="n">
-        <v>3.229892336922103</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G272" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273">
@@ -6777,16 +6777,16 @@
         <v>20</v>
       </c>
       <c r="C273" t="n">
-        <v>3127</v>
+        <v>24</v>
       </c>
       <c r="D273" t="n">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E273" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F273" t="n">
-        <v>5.660377358490567</v>
+        <v>79.16666666666666</v>
       </c>
       <c r="G273" t="n">
         <v>59</v>
@@ -6800,19 +6800,19 @@
         <v>30</v>
       </c>
       <c r="C274" t="n">
-        <v>4672</v>
+        <v>42</v>
       </c>
       <c r="D274" t="n">
-        <v>366</v>
+        <v>30</v>
       </c>
       <c r="E274" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F274" t="n">
-        <v>7.83390410958904</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G274" t="n">
-        <v>203</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275">
@@ -6823,19 +6823,19 @@
         <v>40</v>
       </c>
       <c r="C275" t="n">
-        <v>6310</v>
+        <v>66</v>
       </c>
       <c r="D275" t="n">
-        <v>530</v>
+        <v>45</v>
       </c>
       <c r="E275" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F275" t="n">
-        <v>8.399366085578446</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="G275" t="n">
-        <v>309</v>
+        <v>182</v>
       </c>
     </row>
     <row r="276">
@@ -6846,19 +6846,19 @@
         <v>50</v>
       </c>
       <c r="C276" t="n">
-        <v>7901</v>
+        <v>73</v>
       </c>
       <c r="D276" t="n">
-        <v>750</v>
+        <v>52</v>
       </c>
       <c r="E276" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F276" t="n">
-        <v>9.492469307682573</v>
+        <v>71.23287671232876</v>
       </c>
       <c r="G276" t="n">
-        <v>477</v>
+        <v>170</v>
       </c>
     </row>
     <row r="277">
@@ -6869,19 +6869,19 @@
         <v>60</v>
       </c>
       <c r="C277" t="n">
-        <v>9458</v>
+        <v>102</v>
       </c>
       <c r="D277" t="n">
-        <v>1053</v>
+        <v>68</v>
       </c>
       <c r="E277" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F277" t="n">
-        <v>11.13343201522521</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G277" t="n">
-        <v>691</v>
+        <v>383</v>
       </c>
     </row>
     <row r="278">
@@ -6892,19 +6892,19 @@
         <v>70</v>
       </c>
       <c r="C278" t="n">
-        <v>11089</v>
+        <v>122</v>
       </c>
       <c r="D278" t="n">
-        <v>1111</v>
+        <v>82</v>
       </c>
       <c r="E278" t="n">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="F278" t="n">
-        <v>10.01893768599513</v>
+        <v>67.21311475409836</v>
       </c>
       <c r="G278" t="n">
-        <v>708</v>
+        <v>379</v>
       </c>
     </row>
     <row r="279">
@@ -6915,19 +6915,19 @@
         <v>80</v>
       </c>
       <c r="C279" t="n">
-        <v>12558</v>
+        <v>127</v>
       </c>
       <c r="D279" t="n">
-        <v>1236</v>
+        <v>80</v>
       </c>
       <c r="E279" t="n">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F279" t="n">
-        <v>9.842331581462016</v>
+        <v>62.99212598425197</v>
       </c>
       <c r="G279" t="n">
-        <v>806</v>
+        <v>447</v>
       </c>
     </row>
     <row r="280">
@@ -6938,19 +6938,19 @@
         <v>90</v>
       </c>
       <c r="C280" t="n">
-        <v>14295</v>
+        <v>133</v>
       </c>
       <c r="D280" t="n">
-        <v>1515</v>
+        <v>87</v>
       </c>
       <c r="E280" t="n">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="F280" t="n">
-        <v>10.59811122770199</v>
+        <v>65.41353383458647</v>
       </c>
       <c r="G280" t="n">
-        <v>1085</v>
+        <v>576</v>
       </c>
     </row>
     <row r="281">
@@ -6961,19 +6961,19 @@
         <v>100</v>
       </c>
       <c r="C281" t="n">
-        <v>15848</v>
+        <v>191</v>
       </c>
       <c r="D281" t="n">
-        <v>1835</v>
+        <v>130</v>
       </c>
       <c r="E281" t="n">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="F281" t="n">
-        <v>11.57874810701666</v>
+        <v>68.06282722513089</v>
       </c>
       <c r="G281" t="n">
-        <v>1231</v>
+        <v>770</v>
       </c>
     </row>
     <row r="282">
@@ -6984,19 +6984,19 @@
         <v>10</v>
       </c>
       <c r="C282" t="n">
-        <v>1565</v>
+        <v>14</v>
       </c>
       <c r="D282" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E282" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F282" t="n">
-        <v>3.450479233226837</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="G282" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="283">
@@ -7007,19 +7007,19 @@
         <v>20</v>
       </c>
       <c r="C283" t="n">
-        <v>3197</v>
+        <v>27</v>
       </c>
       <c r="D283" t="n">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="E283" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F283" t="n">
-        <v>4.191429465123553</v>
+        <v>81.48148148148148</v>
       </c>
       <c r="G283" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284">
@@ -7030,19 +7030,19 @@
         <v>30</v>
       </c>
       <c r="C284" t="n">
-        <v>4751</v>
+        <v>45</v>
       </c>
       <c r="D284" t="n">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="E284" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F284" t="n">
-        <v>6.756472321616503</v>
+        <v>60</v>
       </c>
       <c r="G284" t="n">
-        <v>197</v>
+        <v>96</v>
       </c>
     </row>
     <row r="285">
@@ -7053,19 +7053,19 @@
         <v>40</v>
       </c>
       <c r="C285" t="n">
-        <v>6294</v>
+        <v>54</v>
       </c>
       <c r="D285" t="n">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="E285" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F285" t="n">
-        <v>6.895455989831585</v>
+        <v>68.51851851851852</v>
       </c>
       <c r="G285" t="n">
-        <v>286</v>
+        <v>188</v>
       </c>
     </row>
     <row r="286">
@@ -7076,19 +7076,19 @@
         <v>50</v>
       </c>
       <c r="C286" t="n">
-        <v>7828</v>
+        <v>76</v>
       </c>
       <c r="D286" t="n">
-        <v>851</v>
+        <v>53</v>
       </c>
       <c r="E286" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F286" t="n">
-        <v>10.87123147675013</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="G286" t="n">
-        <v>589</v>
+        <v>313</v>
       </c>
     </row>
     <row r="287">
@@ -7099,19 +7099,19 @@
         <v>60</v>
       </c>
       <c r="C287" t="n">
-        <v>9478</v>
+        <v>90</v>
       </c>
       <c r="D287" t="n">
-        <v>762</v>
+        <v>59</v>
       </c>
       <c r="E287" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F287" t="n">
-        <v>8.03967081662798</v>
+        <v>65.55555555555556</v>
       </c>
       <c r="G287" t="n">
-        <v>540</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288">
@@ -7122,19 +7122,19 @@
         <v>70</v>
       </c>
       <c r="C288" t="n">
-        <v>10988</v>
+        <v>130</v>
       </c>
       <c r="D288" t="n">
-        <v>980</v>
+        <v>97</v>
       </c>
       <c r="E288" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F288" t="n">
-        <v>8.918820531488898</v>
+        <v>74.61538461538461</v>
       </c>
       <c r="G288" t="n">
-        <v>740</v>
+        <v>482</v>
       </c>
     </row>
     <row r="289">
@@ -7145,19 +7145,19 @@
         <v>80</v>
       </c>
       <c r="C289" t="n">
-        <v>12682</v>
+        <v>131</v>
       </c>
       <c r="D289" t="n">
-        <v>1227</v>
+        <v>100</v>
       </c>
       <c r="E289" t="n">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="F289" t="n">
-        <v>9.675130105661568</v>
+        <v>76.33587786259542</v>
       </c>
       <c r="G289" t="n">
-        <v>969</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290">
@@ -7168,19 +7168,19 @@
         <v>90</v>
       </c>
       <c r="C290" t="n">
-        <v>14246</v>
+        <v>137</v>
       </c>
       <c r="D290" t="n">
-        <v>1223</v>
+        <v>83</v>
       </c>
       <c r="E290" t="n">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="F290" t="n">
-        <v>8.584865927277832</v>
+        <v>60.58394160583942</v>
       </c>
       <c r="G290" t="n">
-        <v>887</v>
+        <v>556</v>
       </c>
     </row>
     <row r="291">
@@ -7191,19 +7191,19 @@
         <v>100</v>
       </c>
       <c r="C291" t="n">
-        <v>15894</v>
+        <v>179</v>
       </c>
       <c r="D291" t="n">
-        <v>1544</v>
+        <v>114</v>
       </c>
       <c r="E291" t="n">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="F291" t="n">
-        <v>9.714357619227382</v>
+        <v>63.68715083798882</v>
       </c>
       <c r="G291" t="n">
-        <v>1241</v>
+        <v>661</v>
       </c>
     </row>
     <row r="292">
@@ -7214,19 +7214,19 @@
         <v>10</v>
       </c>
       <c r="C292" t="n">
-        <v>1545</v>
+        <v>15</v>
       </c>
       <c r="D292" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E292" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F292" t="n">
-        <v>2.653721682847896</v>
+        <v>60</v>
       </c>
       <c r="G292" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293">
@@ -7237,16 +7237,16 @@
         <v>20</v>
       </c>
       <c r="C293" t="n">
-        <v>3089</v>
+        <v>24</v>
       </c>
       <c r="D293" t="n">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E293" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F293" t="n">
-        <v>3.496277112334089</v>
+        <v>75</v>
       </c>
       <c r="G293" t="n">
         <v>62</v>
@@ -7260,19 +7260,19 @@
         <v>30</v>
       </c>
       <c r="C294" t="n">
-        <v>4598</v>
+        <v>39</v>
       </c>
       <c r="D294" t="n">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="E294" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F294" t="n">
-        <v>5.393649412788169</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="G294" t="n">
-        <v>178</v>
+        <v>105</v>
       </c>
     </row>
     <row r="295">
@@ -7283,19 +7283,19 @@
         <v>40</v>
       </c>
       <c r="C295" t="n">
-        <v>6314</v>
+        <v>60</v>
       </c>
       <c r="D295" t="n">
-        <v>563</v>
+        <v>38</v>
       </c>
       <c r="E295" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F295" t="n">
-        <v>8.916693063034527</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="G295" t="n">
-        <v>427</v>
+        <v>193</v>
       </c>
     </row>
     <row r="296">
@@ -7306,19 +7306,19 @@
         <v>50</v>
       </c>
       <c r="C296" t="n">
-        <v>7915</v>
+        <v>87</v>
       </c>
       <c r="D296" t="n">
-        <v>687</v>
+        <v>61</v>
       </c>
       <c r="E296" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F296" t="n">
-        <v>8.679722046746683</v>
+        <v>70.11494252873564</v>
       </c>
       <c r="G296" t="n">
-        <v>550</v>
+        <v>328</v>
       </c>
     </row>
     <row r="297">
@@ -7329,19 +7329,19 @@
         <v>60</v>
       </c>
       <c r="C297" t="n">
-        <v>9374</v>
+        <v>100</v>
       </c>
       <c r="D297" t="n">
-        <v>807</v>
+        <v>64</v>
       </c>
       <c r="E297" t="n">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F297" t="n">
-        <v>8.608918284617026</v>
+        <v>64</v>
       </c>
       <c r="G297" t="n">
-        <v>611</v>
+        <v>407</v>
       </c>
     </row>
     <row r="298">
@@ -7352,19 +7352,19 @@
         <v>70</v>
       </c>
       <c r="C298" t="n">
-        <v>10971</v>
+        <v>119</v>
       </c>
       <c r="D298" t="n">
-        <v>761</v>
+        <v>77</v>
       </c>
       <c r="E298" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F298" t="n">
-        <v>6.936468872481997</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="G298" t="n">
-        <v>630</v>
+        <v>497</v>
       </c>
     </row>
     <row r="299">
@@ -7375,19 +7375,19 @@
         <v>80</v>
       </c>
       <c r="C299" t="n">
-        <v>12790</v>
+        <v>116</v>
       </c>
       <c r="D299" t="n">
-        <v>979</v>
+        <v>69</v>
       </c>
       <c r="E299" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F299" t="n">
-        <v>7.654417513682564</v>
+        <v>59.48275862068966</v>
       </c>
       <c r="G299" t="n">
-        <v>830</v>
+        <v>448</v>
       </c>
     </row>
     <row r="300">
@@ -7398,19 +7398,19 @@
         <v>90</v>
       </c>
       <c r="C300" t="n">
-        <v>14310</v>
+        <v>155</v>
       </c>
       <c r="D300" t="n">
-        <v>1153</v>
+        <v>87</v>
       </c>
       <c r="E300" t="n">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="F300" t="n">
-        <v>8.057302585604473</v>
+        <v>56.12903225806451</v>
       </c>
       <c r="G300" t="n">
-        <v>1020</v>
+        <v>467</v>
       </c>
     </row>
     <row r="301">
@@ -7421,19 +7421,19 @@
         <v>100</v>
       </c>
       <c r="C301" t="n">
-        <v>15872</v>
+        <v>177</v>
       </c>
       <c r="D301" t="n">
-        <v>1579</v>
+        <v>100</v>
       </c>
       <c r="E301" t="n">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="F301" t="n">
-        <v>9.948336693548388</v>
+        <v>56.49717514124294</v>
       </c>
       <c r="G301" t="n">
-        <v>1330</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/simulation_results.xlsx
+++ b/simulation_results.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Initial Conditions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="p_max{self.upper_bound_people}_sd_max{self.upper_bound_social_distancing}_smr{self.time_per_sim}" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -447,7 +447,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Probably Infected</t>
+          <t>Contagious Rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(100, 5)</t>
+          <t>(240, 5)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>63.63636363636363</v>
@@ -567,16 +567,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>86.36363636363636</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>31</v>
@@ -599,7 +599,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>96.875</v>
+        <v>91.17647058823529</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -616,13 +616,13 @@
         <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>86.66666666666667</v>
+        <v>80</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>87.71929824561403</v>
+        <v>81.48148148148148</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -659,16 +659,16 @@
         <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
         <v>60</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>95.23809523809523</v>
+        <v>89.55223880597015</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>84.81012658227847</v>
+        <v>92.5</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F9" t="n">
-        <v>93.18181818181817</v>
+        <v>96.42857142857143</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>90</v>
       </c>
       <c r="C10" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>93.06930693069307</v>
+        <v>91.75257731958763</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>113</v>
       </c>
       <c r="D11" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E11" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F11" t="n">
-        <v>93.80530973451327</v>
+        <v>90.26548672566371</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>83.33333333333334</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>82.60869565217391</v>
+        <v>64</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>96.96969696969697</v>
+        <v>91.17647058823529</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -843,16 +843,16 @@
         <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>95.45454545454545</v>
+        <v>88.37209302325581</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -866,16 +866,16 @@
         <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>94.44444444444444</v>
+        <v>92.98245614035088</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="n">
-        <v>93.75</v>
+        <v>79.1044776119403</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>70</v>
       </c>
       <c r="C18" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>89.47368421052632</v>
+        <v>87.01298701298701</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>80</v>
       </c>
       <c r="C19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D19" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E19" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F19" t="n">
-        <v>87.05882352941177</v>
+        <v>92.22222222222223</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>96</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>92.70833333333334</v>
+        <v>85.41666666666666</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D21" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F21" t="n">
-        <v>92.66055045871559</v>
+        <v>97.08737864077671</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>63.63636363636363</v>
+        <v>62.5</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1027,16 +1027,16 @@
         <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
         <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>72</v>
+        <v>78.26086956521739</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1050,16 +1050,16 @@
         <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>75</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1073,16 +1073,16 @@
         <v>40</v>
       </c>
       <c r="C25" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>93.02325581395348</v>
+        <v>87.2340425531915</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>50</v>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>92.72727272727272</v>
+        <v>96.29629629629629</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1119,16 +1119,16 @@
         <v>60</v>
       </c>
       <c r="C27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D27" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E27" t="n">
         <v>33</v>
       </c>
       <c r="F27" t="n">
-        <v>72.85714285714285</v>
+        <v>89.23076923076924</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>70</v>
       </c>
       <c r="C28" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>89.47368421052632</v>
+        <v>81.33333333333333</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1165,16 +1165,16 @@
         <v>80</v>
       </c>
       <c r="C29" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D29" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>94.04761904761905</v>
+        <v>82.22222222222221</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1188,16 +1188,16 @@
         <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E30" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F30" t="n">
-        <v>93.81443298969072</v>
+        <v>82.82828282828282</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D31" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E31" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F31" t="n">
-        <v>93.69369369369369</v>
+        <v>90.26548672566371</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1234,16 +1234,16 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>69.23076923076923</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1280,16 +1280,16 @@
         <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E34" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" t="n">
-        <v>76.66666666666667</v>
+        <v>87.09677419354838</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>43</v>
       </c>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E35" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F35" t="n">
-        <v>93.02325581395348</v>
+        <v>81.3953488372093</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>50</v>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D36" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>89.09090909090909</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D37" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E37" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F37" t="n">
-        <v>81.69014084507043</v>
+        <v>86.3013698630137</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>70</v>
       </c>
       <c r="C38" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D38" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E38" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F38" t="n">
-        <v>84.21052631578947</v>
+        <v>82.92682926829268</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1395,16 +1395,16 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D39" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E39" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F39" t="n">
-        <v>84.26966292134831</v>
+        <v>73.56321839080459</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>90</v>
       </c>
       <c r="C40" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D40" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E40" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F40" t="n">
-        <v>87.62886597938144</v>
+        <v>87.12871287128714</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1444,13 +1444,13 @@
         <v>111</v>
       </c>
       <c r="D41" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E41" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F41" t="n">
-        <v>90.09009009009009</v>
+        <v>85.58558558558559</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1464,16 +1464,16 @@
         <v>10</v>
       </c>
       <c r="C42" t="n">
+        <v>14</v>
+      </c>
+      <c r="D42" t="n">
         <v>10</v>
       </c>
-      <c r="D42" t="n">
-        <v>7</v>
-      </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>70</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1490,13 +1490,13 @@
         <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>71.42857142857143</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>30</v>
       </c>
       <c r="C44" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F44" t="n">
-        <v>81.81818181818183</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>40</v>
       </c>
       <c r="C45" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D45" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E45" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F45" t="n">
-        <v>81.3953488372093</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1556,16 +1556,16 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D46" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F46" t="n">
-        <v>74.07407407407408</v>
+        <v>83.92857142857143</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>60</v>
       </c>
       <c r="C47" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D47" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E47" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="n">
-        <v>80.88235294117648</v>
+        <v>76.5625</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1602,19 +1602,19 @@
         <v>70</v>
       </c>
       <c r="C48" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D48" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E48" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F48" t="n">
-        <v>83.11688311688312</v>
+        <v>75.9493670886076</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1625,16 +1625,16 @@
         <v>80</v>
       </c>
       <c r="C49" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E49" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F49" t="n">
-        <v>81.72043010752688</v>
+        <v>87.91208791208791</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1648,19 +1648,19 @@
         <v>90</v>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D50" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E50" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F50" t="n">
-        <v>78</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1671,19 +1671,19 @@
         <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D51" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" t="n">
         <v>48</v>
       </c>
       <c r="F51" t="n">
-        <v>79.64601769911505</v>
+        <v>84.25925925925925</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1697,13 +1697,13 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>66.66666666666666</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>18</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>81.81818181818183</v>
@@ -1740,16 +1740,16 @@
         <v>30</v>
       </c>
       <c r="C54" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>29</v>
       </c>
       <c r="E54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>93.54838709677419</v>
+        <v>85.29411764705883</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>43</v>
       </c>
       <c r="D55" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E55" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F55" t="n">
-        <v>93.02325581395348</v>
+        <v>90.69767441860465</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1786,19 +1786,19 @@
         <v>50</v>
       </c>
       <c r="C56" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D56" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>77.58620689655173</v>
+        <v>75.92592592592592</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1809,16 +1809,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D57" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F57" t="n">
-        <v>78.57142857142857</v>
+        <v>68.65671641791045</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1832,19 +1832,19 @@
         <v>70</v>
       </c>
       <c r="C58" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E58" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F58" t="n">
-        <v>62.0253164556962</v>
+        <v>79.48717948717949</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1855,19 +1855,19 @@
         <v>80</v>
       </c>
       <c r="C59" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D59" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E59" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F59" t="n">
-        <v>80.21978021978022</v>
+        <v>77.90697674418605</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1878,19 +1878,19 @@
         <v>90</v>
       </c>
       <c r="C60" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E60" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F60" t="n">
-        <v>86.86868686868688</v>
+        <v>70.40816326530613</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1901,19 +1901,19 @@
         <v>100</v>
       </c>
       <c r="C61" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D61" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E61" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F61" t="n">
-        <v>75.45454545454545</v>
+        <v>83.62068965517241</v>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1927,13 +1927,13 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
-        <v>81.81818181818183</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1947,16 +1947,16 @@
         <v>20</v>
       </c>
       <c r="C63" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>62.5</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>30</v>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F64" t="n">
-        <v>54.83870967741935</v>
+        <v>73.52941176470588</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E65" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F65" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2016,16 +2016,16 @@
         <v>50</v>
       </c>
       <c r="C66" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D66" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E66" t="n">
         <v>26</v>
       </c>
       <c r="F66" t="n">
-        <v>70.90909090909091</v>
+        <v>75</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>60</v>
       </c>
       <c r="C67" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D67" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E67" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F67" t="n">
-        <v>82.60869565217391</v>
+        <v>82.43243243243244</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2062,19 +2062,19 @@
         <v>70</v>
       </c>
       <c r="C68" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D68" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E68" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F68" t="n">
-        <v>62.33766233766234</v>
+        <v>72.15189873417721</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2085,19 +2085,19 @@
         <v>80</v>
       </c>
       <c r="C69" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D69" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E69" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F69" t="n">
-        <v>80</v>
+        <v>89.79591836734694</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2108,16 +2108,16 @@
         <v>90</v>
       </c>
       <c r="C70" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D70" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E70" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F70" t="n">
-        <v>69.6969696969697</v>
+        <v>84</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2131,19 +2131,19 @@
         <v>100</v>
       </c>
       <c r="C71" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D71" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E71" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" t="n">
-        <v>78.44827586206897</v>
+        <v>82.45614035087719</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -2154,16 +2154,16 @@
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>90</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2177,16 +2177,16 @@
         <v>20</v>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2200,16 +2200,16 @@
         <v>30</v>
       </c>
       <c r="C74" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E74" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>87.09677419354838</v>
+        <v>82.85714285714286</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2223,19 +2223,19 @@
         <v>40</v>
       </c>
       <c r="C75" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D75" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E75" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F75" t="n">
-        <v>91.66666666666666</v>
+        <v>68</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2246,19 +2246,19 @@
         <v>50</v>
       </c>
       <c r="C76" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D76" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E76" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F76" t="n">
-        <v>66.0377358490566</v>
+        <v>75</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2269,19 +2269,19 @@
         <v>60</v>
       </c>
       <c r="C77" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D77" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E77" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F77" t="n">
-        <v>80.95238095238095</v>
+        <v>86.56716417910447</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2292,19 +2292,19 @@
         <v>70</v>
       </c>
       <c r="C78" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D78" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E78" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F78" t="n">
-        <v>81.01265822784811</v>
+        <v>81.70731707317073</v>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -2315,19 +2315,19 @@
         <v>80</v>
       </c>
       <c r="C79" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D79" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E79" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" t="n">
-        <v>71.27659574468085</v>
+        <v>81.25</v>
       </c>
       <c r="G79" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -2338,19 +2338,19 @@
         <v>90</v>
       </c>
       <c r="C80" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D80" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E80" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F80" t="n">
-        <v>87.73584905660378</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="G80" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -2361,19 +2361,19 @@
         <v>100</v>
       </c>
       <c r="C81" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D81" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E81" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F81" t="n">
-        <v>77.39130434782608</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G81" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -2384,16 +2384,16 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>60</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2407,16 +2407,16 @@
         <v>20</v>
       </c>
       <c r="C83" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>56.52173913043478</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2430,16 +2430,16 @@
         <v>30</v>
       </c>
       <c r="C84" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D84" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E84" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>72.22222222222221</v>
+        <v>54.76190476190477</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>40</v>
       </c>
       <c r="C85" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E85" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F85" t="n">
-        <v>65.90909090909091</v>
+        <v>78.72340425531915</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2476,19 +2476,19 @@
         <v>50</v>
       </c>
       <c r="C86" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D86" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E86" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F86" t="n">
-        <v>77.96610169491525</v>
+        <v>59.25925925925925</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -2499,19 +2499,19 @@
         <v>60</v>
       </c>
       <c r="C87" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D87" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E87" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F87" t="n">
-        <v>86.66666666666667</v>
+        <v>65.625</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2522,19 +2522,19 @@
         <v>70</v>
       </c>
       <c r="C88" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D88" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E88" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F88" t="n">
-        <v>87.01298701298701</v>
+        <v>82.27848101265823</v>
       </c>
       <c r="G88" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -2545,16 +2545,16 @@
         <v>80</v>
       </c>
       <c r="C89" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D89" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E89" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F89" t="n">
-        <v>81.81818181818183</v>
+        <v>81.72043010752688</v>
       </c>
       <c r="G89" t="n">
         <v>29</v>
@@ -2568,19 +2568,19 @@
         <v>90</v>
       </c>
       <c r="C90" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D90" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E90" t="n">
+        <v>53</v>
+      </c>
+      <c r="F90" t="n">
+        <v>77.77777777777779</v>
+      </c>
+      <c r="G90" t="n">
         <v>47</v>
-      </c>
-      <c r="F90" t="n">
-        <v>63.26530612244898</v>
-      </c>
-      <c r="G90" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="91">
@@ -2591,19 +2591,19 @@
         <v>100</v>
       </c>
       <c r="C91" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D91" t="n">
         <v>97</v>
       </c>
       <c r="E91" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F91" t="n">
-        <v>84.34782608695653</v>
+        <v>82.20338983050848</v>
       </c>
       <c r="G91" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92">
@@ -2614,16 +2614,16 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
-        <v>54.54545454545454</v>
+        <v>80</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2637,16 +2637,16 @@
         <v>20</v>
       </c>
       <c r="C93" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
       </c>
       <c r="F93" t="n">
-        <v>45.45454545454545</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2660,16 +2660,16 @@
         <v>30</v>
       </c>
       <c r="C94" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D94" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E94" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F94" t="n">
-        <v>56.75675675675676</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2683,19 +2683,19 @@
         <v>40</v>
       </c>
       <c r="C95" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E95" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F95" t="n">
-        <v>72.3404255319149</v>
+        <v>60</v>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2709,16 +2709,16 @@
         <v>57</v>
       </c>
       <c r="D96" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F96" t="n">
-        <v>63.1578947368421</v>
+        <v>75.43859649122807</v>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -2729,19 +2729,19 @@
         <v>60</v>
       </c>
       <c r="C97" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D97" t="n">
         <v>51</v>
       </c>
       <c r="E97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F97" t="n">
-        <v>77.27272727272727</v>
+        <v>67.10526315789474</v>
       </c>
       <c r="G97" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -2752,19 +2752,19 @@
         <v>70</v>
       </c>
       <c r="C98" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D98" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E98" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F98" t="n">
-        <v>81.01265822784811</v>
+        <v>77.64705882352942</v>
       </c>
       <c r="G98" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99">
@@ -2775,19 +2775,19 @@
         <v>80</v>
       </c>
       <c r="C99" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D99" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E99" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F99" t="n">
-        <v>83.83838383838383</v>
+        <v>77</v>
       </c>
       <c r="G99" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
@@ -2798,19 +2798,19 @@
         <v>90</v>
       </c>
       <c r="C100" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D100" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E100" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F100" t="n">
-        <v>67.96116504854369</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="G100" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101">
@@ -2821,19 +2821,19 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D101" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E101" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F101" t="n">
-        <v>75.63025210084034</v>
+        <v>74.33628318584071</v>
       </c>
       <c r="G101" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102">
@@ -2844,16 +2844,16 @@
         <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>54.54545454545454</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2867,19 +2867,19 @@
         <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D103" t="n">
         <v>17</v>
       </c>
       <c r="E103" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F103" t="n">
-        <v>73.91304347826086</v>
+        <v>70.83333333333334</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2890,19 +2890,19 @@
         <v>30</v>
       </c>
       <c r="C104" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F104" t="n">
-        <v>61.76470588235294</v>
+        <v>62.16216216216216</v>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2913,19 +2913,19 @@
         <v>40</v>
       </c>
       <c r="C105" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D105" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E105" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F105" t="n">
-        <v>75.47169811320755</v>
+        <v>79.54545454545455</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
@@ -2936,19 +2936,19 @@
         <v>50</v>
       </c>
       <c r="C106" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D106" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E106" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F106" t="n">
-        <v>62.71186440677966</v>
+        <v>82.8125</v>
       </c>
       <c r="G106" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -2959,19 +2959,19 @@
         <v>60</v>
       </c>
       <c r="C107" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D107" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E107" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F107" t="n">
-        <v>72.60273972602739</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="G107" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108">
@@ -2982,19 +2982,19 @@
         <v>70</v>
       </c>
       <c r="C108" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D108" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E108" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F108" t="n">
-        <v>72.5</v>
+        <v>64.63414634146342</v>
       </c>
       <c r="G108" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -3005,19 +3005,19 @@
         <v>80</v>
       </c>
       <c r="C109" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D109" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E109" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F109" t="n">
-        <v>81.91489361702128</v>
+        <v>69.31818181818183</v>
       </c>
       <c r="G109" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110">
@@ -3028,19 +3028,19 @@
         <v>90</v>
       </c>
       <c r="C110" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D110" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E110" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F110" t="n">
-        <v>81.57894736842105</v>
+        <v>74.52830188679245</v>
       </c>
       <c r="G110" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111">
@@ -3051,19 +3051,19 @@
         <v>100</v>
       </c>
       <c r="C111" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D111" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E111" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F111" t="n">
-        <v>71.1864406779661</v>
+        <v>62.93103448275862</v>
       </c>
       <c r="G111" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112">
@@ -3074,16 +3074,16 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
+        <v>8</v>
+      </c>
+      <c r="E112" t="n">
         <v>7</v>
       </c>
-      <c r="E112" t="n">
-        <v>6</v>
-      </c>
       <c r="F112" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3097,16 +3097,16 @@
         <v>20</v>
       </c>
       <c r="C113" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D113" t="n">
         <v>13</v>
       </c>
       <c r="E113" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>65</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3120,19 +3120,19 @@
         <v>30</v>
       </c>
       <c r="C114" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D114" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E114" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F114" t="n">
-        <v>79.48717948717949</v>
+        <v>60</v>
       </c>
       <c r="G114" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3143,19 +3143,19 @@
         <v>40</v>
       </c>
       <c r="C115" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D115" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E115" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>69.09090909090909</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G115" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -3166,19 +3166,19 @@
         <v>50</v>
       </c>
       <c r="C116" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D116" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E116" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F116" t="n">
-        <v>73.21428571428571</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="G116" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -3189,19 +3189,19 @@
         <v>60</v>
       </c>
       <c r="C117" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D117" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E117" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F117" t="n">
-        <v>82.43243243243244</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G117" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118">
@@ -3212,19 +3212,19 @@
         <v>70</v>
       </c>
       <c r="C118" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D118" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E118" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F118" t="n">
-        <v>71.95121951219512</v>
+        <v>79.51807228915662</v>
       </c>
       <c r="G118" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119">
@@ -3235,19 +3235,19 @@
         <v>80</v>
       </c>
       <c r="C119" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D119" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E119" t="n">
         <v>49</v>
       </c>
       <c r="F119" t="n">
-        <v>79.12087912087912</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="G119" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120">
@@ -3258,19 +3258,19 @@
         <v>90</v>
       </c>
       <c r="C120" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D120" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E120" t="n">
         <v>61</v>
       </c>
       <c r="F120" t="n">
-        <v>76.19047619047619</v>
+        <v>83.05084745762711</v>
       </c>
       <c r="G120" t="n">
-        <v>137</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121">
@@ -3281,19 +3281,19 @@
         <v>100</v>
       </c>
       <c r="C121" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D121" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E121" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F121" t="n">
-        <v>86.32478632478633</v>
+        <v>76</v>
       </c>
       <c r="G121" t="n">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122">
@@ -3304,16 +3304,16 @@
         <v>10</v>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E122" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>63.63636363636363</v>
+        <v>50</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3330,13 +3330,13 @@
         <v>23</v>
       </c>
       <c r="D123" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F123" t="n">
-        <v>78.26086956521739</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -3353,16 +3353,16 @@
         <v>33</v>
       </c>
       <c r="D124" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E124" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F124" t="n">
-        <v>75.75757575757575</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="G124" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -3373,19 +3373,19 @@
         <v>40</v>
       </c>
       <c r="C125" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D125" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E125" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F125" t="n">
-        <v>46.80851063829788</v>
+        <v>73.80952380952381</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -3399,16 +3399,16 @@
         <v>57</v>
       </c>
       <c r="D126" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E126" t="n">
         <v>27</v>
       </c>
       <c r="F126" t="n">
-        <v>61.40350877192983</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="G126" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
@@ -3419,19 +3419,19 @@
         <v>60</v>
       </c>
       <c r="C127" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D127" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E127" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F127" t="n">
-        <v>65.71428571428571</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="G127" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128">
@@ -3442,19 +3442,19 @@
         <v>70</v>
       </c>
       <c r="C128" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D128" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E128" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F128" t="n">
-        <v>69.76744186046511</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="G128" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
@@ -3465,19 +3465,19 @@
         <v>80</v>
       </c>
       <c r="C129" t="n">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D129" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E129" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F129" t="n">
-        <v>75.72815533980582</v>
+        <v>76.40449438202246</v>
       </c>
       <c r="G129" t="n">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130">
@@ -3488,19 +3488,19 @@
         <v>90</v>
       </c>
       <c r="C130" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D130" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E130" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F130" t="n">
-        <v>81.03448275862068</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G130" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
@@ -3511,19 +3511,19 @@
         <v>100</v>
       </c>
       <c r="C131" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D131" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E131" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F131" t="n">
-        <v>75</v>
+        <v>80.67226890756302</v>
       </c>
       <c r="G131" t="n">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
@@ -3560,13 +3560,13 @@
         <v>23</v>
       </c>
       <c r="D133" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
       </c>
       <c r="F133" t="n">
-        <v>52.17391304347826</v>
+        <v>60.86956521739131</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -3580,19 +3580,19 @@
         <v>30</v>
       </c>
       <c r="C134" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D134" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E134" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F134" t="n">
         <v>75</v>
       </c>
       <c r="G134" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -3603,19 +3603,19 @@
         <v>40</v>
       </c>
       <c r="C135" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D135" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E135" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F135" t="n">
-        <v>71.73913043478261</v>
+        <v>79.59183673469387</v>
       </c>
       <c r="G135" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
@@ -3626,19 +3626,19 @@
         <v>50</v>
       </c>
       <c r="C136" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D136" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E136" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F136" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G136" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137">
@@ -3649,7 +3649,7 @@
         <v>60</v>
       </c>
       <c r="C137" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D137" t="n">
         <v>42</v>
@@ -3658,10 +3658,10 @@
         <v>26</v>
       </c>
       <c r="F137" t="n">
-        <v>56.75675675675676</v>
+        <v>62.68656716417911</v>
       </c>
       <c r="G137" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138">
@@ -3675,16 +3675,16 @@
         <v>78</v>
       </c>
       <c r="D138" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E138" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F138" t="n">
-        <v>83.33333333333334</v>
+        <v>85.8974358974359</v>
       </c>
       <c r="G138" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139">
@@ -3695,19 +3695,19 @@
         <v>80</v>
       </c>
       <c r="C139" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D139" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E139" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F139" t="n">
-        <v>84.78260869565217</v>
+        <v>81.72043010752688</v>
       </c>
       <c r="G139" t="n">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140">
@@ -3718,19 +3718,19 @@
         <v>90</v>
       </c>
       <c r="C140" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D140" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E140" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F140" t="n">
-        <v>79.50819672131148</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="G140" t="n">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141">
@@ -3741,19 +3741,19 @@
         <v>100</v>
       </c>
       <c r="C141" t="n">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D141" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E141" t="n">
         <v>56</v>
       </c>
       <c r="F141" t="n">
-        <v>77.16535433070865</v>
+        <v>75.86206896551724</v>
       </c>
       <c r="G141" t="n">
-        <v>198</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142">
@@ -3764,16 +3764,16 @@
         <v>10</v>
       </c>
       <c r="C142" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F142" t="n">
-        <v>50</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>20</v>
       </c>
       <c r="C143" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F143" t="n">
-        <v>37.5</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -3810,19 +3810,19 @@
         <v>30</v>
       </c>
       <c r="C144" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D144" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E144" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F144" t="n">
-        <v>80.55555555555556</v>
+        <v>65.625</v>
       </c>
       <c r="G144" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -3833,19 +3833,19 @@
         <v>40</v>
       </c>
       <c r="C145" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D145" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E145" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F145" t="n">
-        <v>64.58333333333334</v>
+        <v>76.59574468085107</v>
       </c>
       <c r="G145" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
@@ -3856,19 +3856,19 @@
         <v>50</v>
       </c>
       <c r="C146" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D146" t="n">
         <v>47</v>
       </c>
       <c r="E146" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F146" t="n">
-        <v>81.03448275862068</v>
+        <v>71.21212121212122</v>
       </c>
       <c r="G146" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147">
@@ -3879,19 +3879,19 @@
         <v>60</v>
       </c>
       <c r="C147" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D147" t="n">
         <v>59</v>
       </c>
       <c r="E147" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F147" t="n">
-        <v>80.82191780821918</v>
+        <v>77.63157894736842</v>
       </c>
       <c r="G147" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148">
@@ -3902,19 +3902,19 @@
         <v>70</v>
       </c>
       <c r="C148" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D148" t="n">
         <v>61</v>
       </c>
       <c r="E148" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F148" t="n">
-        <v>69.31818181818183</v>
+        <v>76.25</v>
       </c>
       <c r="G148" t="n">
-        <v>132</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149">
@@ -3925,19 +3925,19 @@
         <v>80</v>
       </c>
       <c r="C149" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D149" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E149" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F149" t="n">
-        <v>75.72815533980582</v>
+        <v>71.59090909090909</v>
       </c>
       <c r="G149" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150">
@@ -3948,19 +3948,19 @@
         <v>90</v>
       </c>
       <c r="C150" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D150" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E150" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F150" t="n">
-        <v>79.62962962962963</v>
+        <v>68.80733944954129</v>
       </c>
       <c r="G150" t="n">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151">
@@ -3971,19 +3971,19 @@
         <v>100</v>
       </c>
       <c r="C151" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D151" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E151" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F151" t="n">
-        <v>86.71875</v>
+        <v>67.71653543307087</v>
       </c>
       <c r="G151" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152">
@@ -3994,16 +3994,16 @@
         <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F152" t="n">
-        <v>27.27272727272727</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4017,19 +4017,19 @@
         <v>20</v>
       </c>
       <c r="C153" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E153" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F153" t="n">
-        <v>71.42857142857143</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="G153" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -4040,19 +4040,19 @@
         <v>30</v>
       </c>
       <c r="C154" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D154" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E154" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F154" t="n">
-        <v>81.3953488372093</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="G154" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155">
@@ -4063,7 +4063,7 @@
         <v>40</v>
       </c>
       <c r="C155" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D155" t="n">
         <v>33</v>
@@ -4072,10 +4072,10 @@
         <v>22</v>
       </c>
       <c r="F155" t="n">
-        <v>76.74418604651163</v>
+        <v>75</v>
       </c>
       <c r="G155" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156">
@@ -4086,19 +4086,19 @@
         <v>50</v>
       </c>
       <c r="C156" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D156" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E156" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F156" t="n">
-        <v>78.94736842105263</v>
+        <v>74.13793103448276</v>
       </c>
       <c r="G156" t="n">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157">
@@ -4109,19 +4109,19 @@
         <v>60</v>
       </c>
       <c r="C157" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D157" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E157" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F157" t="n">
-        <v>86.41975308641975</v>
+        <v>74.68354430379746</v>
       </c>
       <c r="G157" t="n">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158">
@@ -4132,19 +4132,19 @@
         <v>70</v>
       </c>
       <c r="C158" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D158" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E158" t="n">
         <v>41</v>
       </c>
       <c r="F158" t="n">
-        <v>74.41860465116279</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="G158" t="n">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159">
@@ -4155,19 +4155,19 @@
         <v>80</v>
       </c>
       <c r="C159" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D159" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E159" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F159" t="n">
-        <v>83.50515463917526</v>
+        <v>67.36842105263158</v>
       </c>
       <c r="G159" t="n">
-        <v>239</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160">
@@ -4178,19 +4178,19 @@
         <v>90</v>
       </c>
       <c r="C160" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D160" t="n">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E160" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F160" t="n">
-        <v>87.2</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G160" t="n">
-        <v>288</v>
+        <v>195</v>
       </c>
     </row>
     <row r="161">
@@ -4201,19 +4201,19 @@
         <v>100</v>
       </c>
       <c r="C161" t="n">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D161" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E161" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F161" t="n">
-        <v>75.42372881355932</v>
+        <v>81.95488721804512</v>
       </c>
       <c r="G161" t="n">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162">
@@ -4224,16 +4224,16 @@
         <v>10</v>
       </c>
       <c r="C162" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4247,19 +4247,19 @@
         <v>20</v>
       </c>
       <c r="C163" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D163" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E163" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>66.66666666666666</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="G163" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4270,19 +4270,19 @@
         <v>30</v>
       </c>
       <c r="C164" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D164" t="n">
         <v>26</v>
       </c>
       <c r="E164" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F164" t="n">
-        <v>66.66666666666666</v>
+        <v>70.27027027027027</v>
       </c>
       <c r="G164" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
@@ -4293,19 +4293,19 @@
         <v>40</v>
       </c>
       <c r="C165" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D165" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E165" t="n">
         <v>21</v>
       </c>
       <c r="F165" t="n">
-        <v>79.06976744186046</v>
+        <v>61.22448979591837</v>
       </c>
       <c r="G165" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166">
@@ -4316,19 +4316,19 @@
         <v>50</v>
       </c>
       <c r="C166" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D166" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E166" t="n">
         <v>34</v>
       </c>
       <c r="F166" t="n">
-        <v>82.53968253968253</v>
+        <v>66.12903225806451</v>
       </c>
       <c r="G166" t="n">
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167">
@@ -4339,19 +4339,19 @@
         <v>60</v>
       </c>
       <c r="C167" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D167" t="n">
         <v>56</v>
       </c>
       <c r="E167" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F167" t="n">
-        <v>71.7948717948718</v>
+        <v>70.88607594936708</v>
       </c>
       <c r="G167" t="n">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168">
@@ -4362,19 +4362,19 @@
         <v>70</v>
       </c>
       <c r="C168" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D168" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E168" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F168" t="n">
-        <v>82.82828282828282</v>
+        <v>72.52747252747253</v>
       </c>
       <c r="G168" t="n">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169">
@@ -4385,19 +4385,19 @@
         <v>80</v>
       </c>
       <c r="C169" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D169" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E169" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F169" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G169" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170">
@@ -4408,19 +4408,19 @@
         <v>90</v>
       </c>
       <c r="C170" t="n">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D170" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E170" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F170" t="n">
-        <v>81.74603174603175</v>
+        <v>77.58620689655173</v>
       </c>
       <c r="G170" t="n">
-        <v>274</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171">
@@ -4431,19 +4431,19 @@
         <v>100</v>
       </c>
       <c r="C171" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D171" t="n">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E171" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F171" t="n">
-        <v>89.14728682170544</v>
+        <v>74.16666666666667</v>
       </c>
       <c r="G171" t="n">
-        <v>492</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172">
@@ -4454,19 +4454,19 @@
         <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D172" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E172" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>33.33333333333333</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -4477,19 +4477,19 @@
         <v>20</v>
       </c>
       <c r="C173" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D173" t="n">
+        <v>17</v>
+      </c>
+      <c r="E173" t="n">
         <v>12</v>
       </c>
-      <c r="E173" t="n">
-        <v>9</v>
-      </c>
       <c r="F173" t="n">
-        <v>57.14285714285714</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="G173" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
@@ -4500,19 +4500,19 @@
         <v>30</v>
       </c>
       <c r="C174" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D174" t="n">
+        <v>33</v>
+      </c>
+      <c r="E174" t="n">
         <v>22</v>
       </c>
-      <c r="E174" t="n">
-        <v>16</v>
-      </c>
       <c r="F174" t="n">
-        <v>62.85714285714285</v>
+        <v>80.48780487804879</v>
       </c>
       <c r="G174" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175">
@@ -4523,7 +4523,7 @@
         <v>40</v>
       </c>
       <c r="C175" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D175" t="n">
         <v>32</v>
@@ -4532,10 +4532,10 @@
         <v>24</v>
       </c>
       <c r="F175" t="n">
-        <v>61.53846153846154</v>
+        <v>76.19047619047619</v>
       </c>
       <c r="G175" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="176">
@@ -4546,19 +4546,19 @@
         <v>50</v>
       </c>
       <c r="C176" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D176" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E176" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F176" t="n">
-        <v>75</v>
+        <v>79.1044776119403</v>
       </c>
       <c r="G176" t="n">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177">
@@ -4569,19 +4569,19 @@
         <v>60</v>
       </c>
       <c r="C177" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D177" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E177" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F177" t="n">
-        <v>70.83333333333334</v>
+        <v>81.25</v>
       </c>
       <c r="G177" t="n">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="178">
@@ -4592,19 +4592,19 @@
         <v>70</v>
       </c>
       <c r="C178" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D178" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E178" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F178" t="n">
-        <v>76.13636363636364</v>
+        <v>68.29268292682927</v>
       </c>
       <c r="G178" t="n">
-        <v>189</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179">
@@ -4615,19 +4615,19 @@
         <v>80</v>
       </c>
       <c r="C179" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D179" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E179" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F179" t="n">
-        <v>86.36363636363636</v>
+        <v>58.25242718446601</v>
       </c>
       <c r="G179" t="n">
-        <v>264</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180">
@@ -4638,19 +4638,19 @@
         <v>90</v>
       </c>
       <c r="C180" t="n">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D180" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E180" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F180" t="n">
-        <v>75.1937984496124</v>
+        <v>85.21739130434783</v>
       </c>
       <c r="G180" t="n">
-        <v>369</v>
+        <v>296</v>
       </c>
     </row>
     <row r="181">
@@ -4661,19 +4661,19 @@
         <v>100</v>
       </c>
       <c r="C181" t="n">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D181" t="n">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E181" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F181" t="n">
-        <v>83.66013071895425</v>
+        <v>69.40298507462687</v>
       </c>
       <c r="G181" t="n">
-        <v>530</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182">
@@ -4684,16 +4684,16 @@
         <v>10</v>
       </c>
       <c r="C182" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D182" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E182" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F182" t="n">
-        <v>81.81818181818183</v>
+        <v>50</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -4707,19 +4707,19 @@
         <v>20</v>
       </c>
       <c r="C183" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D183" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
       </c>
       <c r="F183" t="n">
-        <v>84</v>
+        <v>67.85714285714286</v>
       </c>
       <c r="G183" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184">
@@ -4730,19 +4730,19 @@
         <v>30</v>
       </c>
       <c r="C184" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D184" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E184" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F184" t="n">
-        <v>79.41176470588235</v>
+        <v>65</v>
       </c>
       <c r="G184" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185">
@@ -4753,19 +4753,19 @@
         <v>40</v>
       </c>
       <c r="C185" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D185" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E185" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F185" t="n">
-        <v>71.11111111111111</v>
+        <v>73.07692307692307</v>
       </c>
       <c r="G185" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186">
@@ -4776,19 +4776,19 @@
         <v>50</v>
       </c>
       <c r="C186" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D186" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E186" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F186" t="n">
-        <v>64.0625</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G186" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187">
@@ -4799,19 +4799,19 @@
         <v>60</v>
       </c>
       <c r="C187" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D187" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E187" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F187" t="n">
-        <v>67.6056338028169</v>
+        <v>76.5432098765432</v>
       </c>
       <c r="G187" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188">
@@ -4822,19 +4822,19 @@
         <v>70</v>
       </c>
       <c r="C188" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D188" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E188" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F188" t="n">
-        <v>81.91489361702128</v>
+        <v>74.41860465116279</v>
       </c>
       <c r="G188" t="n">
-        <v>283</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189">
@@ -4845,19 +4845,19 @@
         <v>80</v>
       </c>
       <c r="C189" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D189" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E189" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F189" t="n">
-        <v>75.22935779816514</v>
+        <v>74</v>
       </c>
       <c r="G189" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190">
@@ -4868,19 +4868,19 @@
         <v>90</v>
       </c>
       <c r="C190" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D190" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E190" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F190" t="n">
-        <v>80</v>
+        <v>67.61904761904762</v>
       </c>
       <c r="G190" t="n">
-        <v>358</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191">
@@ -4891,19 +4891,19 @@
         <v>100</v>
       </c>
       <c r="C191" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D191" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E191" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F191" t="n">
-        <v>80.1418439716312</v>
+        <v>78.62595419847328</v>
       </c>
       <c r="G191" t="n">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192">
@@ -4914,19 +4914,19 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E192" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F192" t="n">
-        <v>60</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4937,19 +4937,19 @@
         <v>20</v>
       </c>
       <c r="C193" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D193" t="n">
         <v>16</v>
       </c>
       <c r="E193" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F193" t="n">
-        <v>66.66666666666666</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G193" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
@@ -4960,19 +4960,19 @@
         <v>30</v>
       </c>
       <c r="C194" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D194" t="n">
         <v>24</v>
       </c>
       <c r="E194" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F194" t="n">
-        <v>66.66666666666666</v>
+        <v>70.58823529411765</v>
       </c>
       <c r="G194" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195">
@@ -4983,19 +4983,19 @@
         <v>40</v>
       </c>
       <c r="C195" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D195" t="n">
+        <v>37</v>
+      </c>
+      <c r="E195" t="n">
         <v>25</v>
       </c>
-      <c r="E195" t="n">
-        <v>15</v>
-      </c>
       <c r="F195" t="n">
-        <v>48.07692307692308</v>
+        <v>68.51851851851852</v>
       </c>
       <c r="G195" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="196">
@@ -5006,19 +5006,19 @@
         <v>50</v>
       </c>
       <c r="C196" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D196" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E196" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F196" t="n">
-        <v>78.78787878787878</v>
+        <v>70.14925373134329</v>
       </c>
       <c r="G196" t="n">
-        <v>188</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197">
@@ -5029,19 +5029,19 @@
         <v>60</v>
       </c>
       <c r="C197" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D197" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E197" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F197" t="n">
-        <v>71.60493827160494</v>
+        <v>81.57894736842105</v>
       </c>
       <c r="G197" t="n">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198">
@@ -5052,19 +5052,19 @@
         <v>70</v>
       </c>
       <c r="C198" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D198" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E198" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F198" t="n">
-        <v>78.84615384615384</v>
+        <v>76.74418604651163</v>
       </c>
       <c r="G198" t="n">
-        <v>351</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199">
@@ -5078,16 +5078,16 @@
         <v>98</v>
       </c>
       <c r="D199" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E199" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F199" t="n">
-        <v>65.30612244897959</v>
+        <v>73.46938775510205</v>
       </c>
       <c r="G199" t="n">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="200">
@@ -5098,19 +5098,19 @@
         <v>90</v>
       </c>
       <c r="C200" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D200" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E200" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F200" t="n">
-        <v>76.5625</v>
+        <v>71.07438016528926</v>
       </c>
       <c r="G200" t="n">
-        <v>298</v>
+        <v>338</v>
       </c>
     </row>
     <row r="201">
@@ -5121,19 +5121,19 @@
         <v>100</v>
       </c>
       <c r="C201" t="n">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="D201" t="n">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E201" t="n">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F201" t="n">
-        <v>73.65269461077844</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="G201" t="n">
-        <v>462</v>
+        <v>317</v>
       </c>
     </row>
     <row r="202">
@@ -5144,19 +5144,19 @@
         <v>10</v>
       </c>
       <c r="C202" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D202" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E202" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F202" t="n">
-        <v>69.23076923076923</v>
+        <v>50</v>
       </c>
       <c r="G202" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5167,19 +5167,19 @@
         <v>20</v>
       </c>
       <c r="C203" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D203" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E203" t="n">
+        <v>9</v>
+      </c>
+      <c r="F203" t="n">
+        <v>50</v>
+      </c>
+      <c r="G203" t="n">
         <v>12</v>
-      </c>
-      <c r="F203" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="G203" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="204">
@@ -5190,19 +5190,19 @@
         <v>30</v>
       </c>
       <c r="C204" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D204" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E204" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F204" t="n">
-        <v>71.42857142857143</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="G204" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205">
@@ -5213,19 +5213,19 @@
         <v>40</v>
       </c>
       <c r="C205" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D205" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E205" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F205" t="n">
-        <v>66.0377358490566</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="G205" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206">
@@ -5236,19 +5236,19 @@
         <v>50</v>
       </c>
       <c r="C206" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D206" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E206" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F206" t="n">
-        <v>73.33333333333333</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="G206" t="n">
-        <v>184</v>
+        <v>120</v>
       </c>
     </row>
     <row r="207">
@@ -5259,19 +5259,19 @@
         <v>60</v>
       </c>
       <c r="C207" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D207" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E207" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F207" t="n">
-        <v>68.88888888888889</v>
+        <v>83.75</v>
       </c>
       <c r="G207" t="n">
-        <v>238</v>
+        <v>164</v>
       </c>
     </row>
     <row r="208">
@@ -5282,19 +5282,19 @@
         <v>70</v>
       </c>
       <c r="C208" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D208" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E208" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F208" t="n">
-        <v>82.97872340425532</v>
+        <v>57.95454545454546</v>
       </c>
       <c r="G208" t="n">
-        <v>344</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209">
@@ -5305,19 +5305,19 @@
         <v>80</v>
       </c>
       <c r="C209" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D209" t="n">
         <v>77</v>
       </c>
       <c r="E209" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F209" t="n">
-        <v>70</v>
+        <v>70.64220183486239</v>
       </c>
       <c r="G209" t="n">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="210">
@@ -5328,19 +5328,19 @@
         <v>90</v>
       </c>
       <c r="C210" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D210" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E210" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F210" t="n">
-        <v>72.22222222222221</v>
+        <v>67.52136752136752</v>
       </c>
       <c r="G210" t="n">
-        <v>452</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211">
@@ -5351,19 +5351,19 @@
         <v>100</v>
       </c>
       <c r="C211" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D211" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E211" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F211" t="n">
-        <v>72.22222222222221</v>
+        <v>68.34532374100719</v>
       </c>
       <c r="G211" t="n">
-        <v>475</v>
+        <v>344</v>
       </c>
     </row>
     <row r="212">
@@ -5377,16 +5377,16 @@
         <v>10</v>
       </c>
       <c r="D212" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E212" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F212" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5397,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="C213" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D213" t="n">
         <v>14</v>
@@ -5406,10 +5406,10 @@
         <v>11</v>
       </c>
       <c r="F213" t="n">
-        <v>60.86956521739131</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="G213" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214">
@@ -5420,19 +5420,19 @@
         <v>30</v>
       </c>
       <c r="C214" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D214" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E214" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F214" t="n">
-        <v>57.49999999999999</v>
+        <v>68.57142857142857</v>
       </c>
       <c r="G214" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215">
@@ -5443,19 +5443,19 @@
         <v>40</v>
       </c>
       <c r="C215" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D215" t="n">
         <v>32</v>
       </c>
       <c r="E215" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F215" t="n">
-        <v>66.66666666666666</v>
+        <v>64</v>
       </c>
       <c r="G215" t="n">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="216">
@@ -5466,19 +5466,19 @@
         <v>50</v>
       </c>
       <c r="C216" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D216" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E216" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F216" t="n">
-        <v>65.57377049180327</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="G216" t="n">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="217">
@@ -5489,19 +5489,19 @@
         <v>60</v>
       </c>
       <c r="C217" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D217" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E217" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F217" t="n">
-        <v>86.20689655172413</v>
+        <v>61.33333333333333</v>
       </c>
       <c r="G217" t="n">
-        <v>299</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218">
@@ -5512,19 +5512,19 @@
         <v>70</v>
       </c>
       <c r="C218" t="n">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D218" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E218" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F218" t="n">
-        <v>75</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="G218" t="n">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219">
@@ -5535,19 +5535,19 @@
         <v>80</v>
       </c>
       <c r="C219" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D219" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E219" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F219" t="n">
-        <v>74.28571428571429</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="G219" t="n">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="220">
@@ -5558,19 +5558,19 @@
         <v>90</v>
       </c>
       <c r="C220" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D220" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E220" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F220" t="n">
-        <v>67.14285714285714</v>
+        <v>75.93984962406014</v>
       </c>
       <c r="G220" t="n">
-        <v>370</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221">
@@ -5581,19 +5581,19 @@
         <v>100</v>
       </c>
       <c r="C221" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D221" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E221" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F221" t="n">
-        <v>70.86092715231787</v>
+        <v>68.02721088435374</v>
       </c>
       <c r="G221" t="n">
-        <v>475</v>
+        <v>309</v>
       </c>
     </row>
     <row r="222">
@@ -5604,19 +5604,19 @@
         <v>10</v>
       </c>
       <c r="C222" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D222" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E222" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F222" t="n">
-        <v>63.63636363636363</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223">
@@ -5627,19 +5627,19 @@
         <v>20</v>
       </c>
       <c r="C223" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D223" t="n">
+        <v>15</v>
+      </c>
+      <c r="E223" t="n">
         <v>12</v>
       </c>
-      <c r="E223" t="n">
-        <v>8</v>
-      </c>
       <c r="F223" t="n">
-        <v>60</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="G223" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="224">
@@ -5650,19 +5650,19 @@
         <v>30</v>
       </c>
       <c r="C224" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D224" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E224" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F224" t="n">
-        <v>72.22222222222221</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="G224" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225">
@@ -5673,19 +5673,19 @@
         <v>40</v>
       </c>
       <c r="C225" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D225" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E225" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F225" t="n">
-        <v>68.33333333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="G225" t="n">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="226">
@@ -5696,19 +5696,19 @@
         <v>50</v>
       </c>
       <c r="C226" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D226" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E226" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F226" t="n">
-        <v>74.64788732394366</v>
+        <v>75.38461538461539</v>
       </c>
       <c r="G226" t="n">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="227">
@@ -5719,19 +5719,19 @@
         <v>60</v>
       </c>
       <c r="C227" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D227" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E227" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F227" t="n">
-        <v>68.18181818181817</v>
+        <v>59.45945945945946</v>
       </c>
       <c r="G227" t="n">
-        <v>297</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228">
@@ -5742,19 +5742,19 @@
         <v>70</v>
       </c>
       <c r="C228" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D228" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E228" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F228" t="n">
-        <v>67.61904761904762</v>
+        <v>74.46808510638297</v>
       </c>
       <c r="G228" t="n">
-        <v>325</v>
+        <v>359</v>
       </c>
     </row>
     <row r="229">
@@ -5765,19 +5765,19 @@
         <v>80</v>
       </c>
       <c r="C229" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D229" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E229" t="n">
         <v>65</v>
       </c>
       <c r="F229" t="n">
-        <v>78.33333333333333</v>
+        <v>67.79661016949152</v>
       </c>
       <c r="G229" t="n">
-        <v>462</v>
+        <v>344</v>
       </c>
     </row>
     <row r="230">
@@ -5788,19 +5788,19 @@
         <v>90</v>
       </c>
       <c r="C230" t="n">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D230" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E230" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F230" t="n">
-        <v>57.57575757575758</v>
+        <v>57.4074074074074</v>
       </c>
       <c r="G230" t="n">
-        <v>329</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231">
@@ -5811,19 +5811,19 @@
         <v>100</v>
       </c>
       <c r="C231" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D231" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E231" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F231" t="n">
-        <v>53.67647058823529</v>
+        <v>70.8955223880597</v>
       </c>
       <c r="G231" t="n">
-        <v>271</v>
+        <v>487</v>
       </c>
     </row>
     <row r="232">
@@ -5834,19 +5834,19 @@
         <v>10</v>
       </c>
       <c r="C232" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D232" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E232" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F232" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -5857,19 +5857,19 @@
         <v>20</v>
       </c>
       <c r="C233" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D233" t="n">
+        <v>13</v>
+      </c>
+      <c r="E233" t="n">
+        <v>10</v>
+      </c>
+      <c r="F233" t="n">
+        <v>56.52173913043478</v>
+      </c>
+      <c r="G233" t="n">
         <v>20</v>
-      </c>
-      <c r="E233" t="n">
-        <v>17</v>
-      </c>
-      <c r="F233" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="G233" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="234">
@@ -5880,19 +5880,19 @@
         <v>30</v>
       </c>
       <c r="C234" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D234" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E234" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>73.68421052631578</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G234" t="n">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235">
@@ -5903,19 +5903,19 @@
         <v>40</v>
       </c>
       <c r="C235" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D235" t="n">
         <v>30</v>
       </c>
       <c r="E235" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F235" t="n">
-        <v>57.69230769230769</v>
+        <v>56.60377358490566</v>
       </c>
       <c r="G235" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="236">
@@ -5926,19 +5926,19 @@
         <v>50</v>
       </c>
       <c r="C236" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D236" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E236" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F236" t="n">
-        <v>81.42857142857143</v>
+        <v>71.875</v>
       </c>
       <c r="G236" t="n">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="237">
@@ -5949,19 +5949,19 @@
         <v>60</v>
       </c>
       <c r="C237" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D237" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E237" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F237" t="n">
-        <v>69.0721649484536</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G237" t="n">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="238">
@@ -5972,19 +5972,19 @@
         <v>70</v>
       </c>
       <c r="C238" t="n">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D238" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E238" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F238" t="n">
-        <v>68.86792452830188</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="G238" t="n">
-        <v>294</v>
+        <v>189</v>
       </c>
     </row>
     <row r="239">
@@ -5995,19 +5995,19 @@
         <v>80</v>
       </c>
       <c r="C239" t="n">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D239" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E239" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F239" t="n">
-        <v>71.66666666666667</v>
+        <v>73.52941176470588</v>
       </c>
       <c r="G239" t="n">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="240">
@@ -6018,19 +6018,19 @@
         <v>90</v>
       </c>
       <c r="C240" t="n">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D240" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E240" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F240" t="n">
-        <v>69.50354609929079</v>
+        <v>81.57894736842105</v>
       </c>
       <c r="G240" t="n">
-        <v>442</v>
+        <v>503</v>
       </c>
     </row>
     <row r="241">
@@ -6041,19 +6041,19 @@
         <v>100</v>
       </c>
       <c r="C241" t="n">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="D241" t="n">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E241" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F241" t="n">
-        <v>70.28571428571428</v>
+        <v>71.53284671532847</v>
       </c>
       <c r="G241" t="n">
-        <v>626</v>
+        <v>424</v>
       </c>
     </row>
     <row r="242">
@@ -6064,19 +6064,19 @@
         <v>10</v>
       </c>
       <c r="C242" t="n">
+        <v>14</v>
+      </c>
+      <c r="D242" t="n">
         <v>11</v>
       </c>
-      <c r="D242" t="n">
-        <v>9</v>
-      </c>
       <c r="E242" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F242" t="n">
-        <v>81.81818181818183</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="G242" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
@@ -6087,19 +6087,19 @@
         <v>20</v>
       </c>
       <c r="C243" t="n">
+        <v>26</v>
+      </c>
+      <c r="D243" t="n">
+        <v>16</v>
+      </c>
+      <c r="E243" t="n">
+        <v>13</v>
+      </c>
+      <c r="F243" t="n">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="G243" t="n">
         <v>23</v>
-      </c>
-      <c r="D243" t="n">
-        <v>14</v>
-      </c>
-      <c r="E243" t="n">
-        <v>10</v>
-      </c>
-      <c r="F243" t="n">
-        <v>60.86956521739131</v>
-      </c>
-      <c r="G243" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="244">
@@ -6113,16 +6113,16 @@
         <v>39</v>
       </c>
       <c r="D244" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E244" t="n">
         <v>20</v>
       </c>
       <c r="F244" t="n">
-        <v>71.7948717948718</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="G244" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245">
@@ -6133,19 +6133,19 @@
         <v>40</v>
       </c>
       <c r="C245" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D245" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E245" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F245" t="n">
-        <v>70</v>
+        <v>75.55555555555556</v>
       </c>
       <c r="G245" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="246">
@@ -6156,19 +6156,19 @@
         <v>50</v>
       </c>
       <c r="C246" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D246" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E246" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F246" t="n">
-        <v>72.97297297297297</v>
+        <v>68.65671641791045</v>
       </c>
       <c r="G246" t="n">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="247">
@@ -6179,19 +6179,19 @@
         <v>60</v>
       </c>
       <c r="C247" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D247" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E247" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F247" t="n">
-        <v>74.46808510638297</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="G247" t="n">
-        <v>291</v>
+        <v>143</v>
       </c>
     </row>
     <row r="248">
@@ -6202,19 +6202,19 @@
         <v>70</v>
       </c>
       <c r="C248" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D248" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E248" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F248" t="n">
-        <v>63.91752577319587</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="G248" t="n">
-        <v>342</v>
+        <v>139</v>
       </c>
     </row>
     <row r="249">
@@ -6225,19 +6225,19 @@
         <v>80</v>
       </c>
       <c r="C249" t="n">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D249" t="n">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E249" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F249" t="n">
-        <v>74.61538461538461</v>
+        <v>65.68627450980392</v>
       </c>
       <c r="G249" t="n">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="250">
@@ -6248,19 +6248,19 @@
         <v>90</v>
       </c>
       <c r="C250" t="n">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D250" t="n">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E250" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F250" t="n">
-        <v>71.91780821917808</v>
+        <v>67.1875</v>
       </c>
       <c r="G250" t="n">
-        <v>507</v>
+        <v>402</v>
       </c>
     </row>
     <row r="251">
@@ -6271,19 +6271,19 @@
         <v>100</v>
       </c>
       <c r="C251" t="n">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="D251" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E251" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F251" t="n">
-        <v>62.35955056179775</v>
+        <v>73.13432835820896</v>
       </c>
       <c r="G251" t="n">
-        <v>660</v>
+        <v>686</v>
       </c>
     </row>
     <row r="252">
@@ -6294,19 +6294,19 @@
         <v>10</v>
       </c>
       <c r="C252" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D252" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E252" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F252" t="n">
-        <v>76.92307692307693</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="G252" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -6317,19 +6317,19 @@
         <v>20</v>
       </c>
       <c r="C253" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D253" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E253" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F253" t="n">
-        <v>47.61904761904761</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="G253" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="254">
@@ -6340,19 +6340,19 @@
         <v>30</v>
       </c>
       <c r="C254" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D254" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E254" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F254" t="n">
-        <v>62.5</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="G254" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255">
@@ -6363,19 +6363,19 @@
         <v>40</v>
       </c>
       <c r="C255" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D255" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E255" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F255" t="n">
-        <v>60</v>
+        <v>58.69565217391305</v>
       </c>
       <c r="G255" t="n">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="256">
@@ -6386,19 +6386,19 @@
         <v>50</v>
       </c>
       <c r="C256" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D256" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E256" t="n">
         <v>25</v>
       </c>
       <c r="F256" t="n">
-        <v>59.375</v>
+        <v>55.73770491803278</v>
       </c>
       <c r="G256" t="n">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="257">
@@ -6409,19 +6409,19 @@
         <v>60</v>
       </c>
       <c r="C257" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D257" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E257" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F257" t="n">
-        <v>71.42857142857143</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="G257" t="n">
-        <v>392</v>
+        <v>287</v>
       </c>
     </row>
     <row r="258">
@@ -6432,19 +6432,19 @@
         <v>70</v>
       </c>
       <c r="C258" t="n">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D258" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E258" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F258" t="n">
-        <v>69.56521739130434</v>
+        <v>81.92771084337349</v>
       </c>
       <c r="G258" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="259">
@@ -6455,19 +6455,19 @@
         <v>80</v>
       </c>
       <c r="C259" t="n">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D259" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E259" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F259" t="n">
-        <v>67.71653543307087</v>
+        <v>62.24489795918367</v>
       </c>
       <c r="G259" t="n">
-        <v>484</v>
+        <v>281</v>
       </c>
     </row>
     <row r="260">
@@ -6478,19 +6478,19 @@
         <v>90</v>
       </c>
       <c r="C260" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D260" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E260" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F260" t="n">
-        <v>68.05555555555556</v>
+        <v>72.66187050359713</v>
       </c>
       <c r="G260" t="n">
-        <v>542</v>
+        <v>596</v>
       </c>
     </row>
     <row r="261">
@@ -6501,19 +6501,19 @@
         <v>100</v>
       </c>
       <c r="C261" t="n">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D261" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E261" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F261" t="n">
-        <v>63.82978723404256</v>
+        <v>62.0253164556962</v>
       </c>
       <c r="G261" t="n">
-        <v>403</v>
+        <v>530</v>
       </c>
     </row>
     <row r="262">
@@ -6524,16 +6524,16 @@
         <v>10</v>
       </c>
       <c r="C262" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D262" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E262" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F262" t="n">
-        <v>54.54545454545454</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="G262" t="n">
         <v>4</v>
@@ -6547,19 +6547,19 @@
         <v>20</v>
       </c>
       <c r="C263" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D263" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E263" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F263" t="n">
-        <v>62.5</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="G263" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264">
@@ -6570,19 +6570,19 @@
         <v>30</v>
       </c>
       <c r="C264" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D264" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E264" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F264" t="n">
-        <v>73.17073170731707</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="G264" t="n">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
     <row r="265">
@@ -6593,19 +6593,19 @@
         <v>40</v>
       </c>
       <c r="C265" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D265" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E265" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F265" t="n">
-        <v>62.5</v>
+        <v>60.78431372549019</v>
       </c>
       <c r="G265" t="n">
-        <v>171</v>
+        <v>91</v>
       </c>
     </row>
     <row r="266">
@@ -6616,19 +6616,19 @@
         <v>50</v>
       </c>
       <c r="C266" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D266" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E266" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F266" t="n">
-        <v>70.66666666666667</v>
+        <v>55.38461538461539</v>
       </c>
       <c r="G266" t="n">
-        <v>196</v>
+        <v>256</v>
       </c>
     </row>
     <row r="267">
@@ -6639,19 +6639,19 @@
         <v>60</v>
       </c>
       <c r="C267" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D267" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E267" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F267" t="n">
-        <v>60</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G267" t="n">
-        <v>355</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268">
@@ -6662,19 +6662,19 @@
         <v>70</v>
       </c>
       <c r="C268" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D268" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E268" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F268" t="n">
-        <v>71.68141592920354</v>
+        <v>65.81196581196581</v>
       </c>
       <c r="G268" t="n">
-        <v>431</v>
+        <v>294</v>
       </c>
     </row>
     <row r="269">
@@ -6685,19 +6685,19 @@
         <v>80</v>
       </c>
       <c r="C269" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D269" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E269" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F269" t="n">
-        <v>62.28070175438597</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G269" t="n">
-        <v>405</v>
+        <v>464</v>
       </c>
     </row>
     <row r="270">
@@ -6708,19 +6708,19 @@
         <v>90</v>
       </c>
       <c r="C270" t="n">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="D270" t="n">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E270" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F270" t="n">
-        <v>60.12269938650306</v>
+        <v>55.85585585585585</v>
       </c>
       <c r="G270" t="n">
-        <v>524</v>
+        <v>332</v>
       </c>
     </row>
     <row r="271">
@@ -6731,19 +6731,19 @@
         <v>100</v>
       </c>
       <c r="C271" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D271" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E271" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F271" t="n">
-        <v>68.32298136645963</v>
+        <v>66.0377358490566</v>
       </c>
       <c r="G271" t="n">
-        <v>698</v>
+        <v>535</v>
       </c>
     </row>
     <row r="272">
@@ -6754,19 +6754,19 @@
         <v>10</v>
       </c>
       <c r="C272" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D272" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E272" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>83.33333333333334</v>
+        <v>75</v>
       </c>
       <c r="G272" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273">
@@ -6777,19 +6777,19 @@
         <v>20</v>
       </c>
       <c r="C273" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D273" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E273" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F273" t="n">
-        <v>79.16666666666666</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="G273" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274">
@@ -6800,19 +6800,19 @@
         <v>30</v>
       </c>
       <c r="C274" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D274" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E274" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F274" t="n">
-        <v>71.42857142857143</v>
+        <v>58.97435897435898</v>
       </c>
       <c r="G274" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="275">
@@ -6823,19 +6823,19 @@
         <v>40</v>
       </c>
       <c r="C275" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D275" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E275" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F275" t="n">
-        <v>68.18181818181817</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="G275" t="n">
-        <v>182</v>
+        <v>71</v>
       </c>
     </row>
     <row r="276">
@@ -6846,19 +6846,19 @@
         <v>50</v>
       </c>
       <c r="C276" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D276" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E276" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F276" t="n">
-        <v>71.23287671232876</v>
+        <v>59.45945945945946</v>
       </c>
       <c r="G276" t="n">
-        <v>170</v>
+        <v>123</v>
       </c>
     </row>
     <row r="277">
@@ -6869,19 +6869,19 @@
         <v>60</v>
       </c>
       <c r="C277" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D277" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E277" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F277" t="n">
-        <v>66.66666666666666</v>
+        <v>62.82051282051282</v>
       </c>
       <c r="G277" t="n">
-        <v>383</v>
+        <v>269</v>
       </c>
     </row>
     <row r="278">
@@ -6892,19 +6892,19 @@
         <v>70</v>
       </c>
       <c r="C278" t="n">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D278" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E278" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F278" t="n">
-        <v>67.21311475409836</v>
+        <v>71.57894736842105</v>
       </c>
       <c r="G278" t="n">
-        <v>379</v>
+        <v>412</v>
       </c>
     </row>
     <row r="279">
@@ -6915,16 +6915,16 @@
         <v>80</v>
       </c>
       <c r="C279" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D279" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E279" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F279" t="n">
-        <v>62.99212598425197</v>
+        <v>66.96428571428571</v>
       </c>
       <c r="G279" t="n">
         <v>447</v>
@@ -6938,19 +6938,19 @@
         <v>90</v>
       </c>
       <c r="C280" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D280" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E280" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F280" t="n">
-        <v>65.41353383458647</v>
+        <v>69.46564885496184</v>
       </c>
       <c r="G280" t="n">
-        <v>576</v>
+        <v>551</v>
       </c>
     </row>
     <row r="281">
@@ -6961,19 +6961,19 @@
         <v>100</v>
       </c>
       <c r="C281" t="n">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D281" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E281" t="n">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F281" t="n">
-        <v>68.06282722513089</v>
+        <v>65.33333333333333</v>
       </c>
       <c r="G281" t="n">
-        <v>770</v>
+        <v>541</v>
       </c>
     </row>
     <row r="282">
@@ -6987,16 +6987,16 @@
         <v>14</v>
       </c>
       <c r="D282" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E282" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F282" t="n">
-        <v>85.71428571428571</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G282" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283">
@@ -7007,19 +7007,19 @@
         <v>20</v>
       </c>
       <c r="C283" t="n">
+        <v>25</v>
+      </c>
+      <c r="D283" t="n">
+        <v>15</v>
+      </c>
+      <c r="E283" t="n">
+        <v>11</v>
+      </c>
+      <c r="F283" t="n">
+        <v>60</v>
+      </c>
+      <c r="G283" t="n">
         <v>27</v>
-      </c>
-      <c r="D283" t="n">
-        <v>22</v>
-      </c>
-      <c r="E283" t="n">
-        <v>19</v>
-      </c>
-      <c r="F283" t="n">
-        <v>81.48148148148148</v>
-      </c>
-      <c r="G283" t="n">
-        <v>92</v>
       </c>
     </row>
     <row r="284">
@@ -7030,19 +7030,19 @@
         <v>30</v>
       </c>
       <c r="C284" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D284" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E284" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F284" t="n">
-        <v>60</v>
+        <v>58.97435897435898</v>
       </c>
       <c r="G284" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
     </row>
     <row r="285">
@@ -7053,19 +7053,19 @@
         <v>40</v>
       </c>
       <c r="C285" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D285" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E285" t="n">
         <v>24</v>
       </c>
       <c r="F285" t="n">
-        <v>68.51851851851852</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G285" t="n">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="286">
@@ -7076,19 +7076,19 @@
         <v>50</v>
       </c>
       <c r="C286" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D286" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E286" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F286" t="n">
-        <v>69.73684210526315</v>
+        <v>70</v>
       </c>
       <c r="G286" t="n">
-        <v>313</v>
+        <v>189</v>
       </c>
     </row>
     <row r="287">
@@ -7099,19 +7099,19 @@
         <v>60</v>
       </c>
       <c r="C287" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D287" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E287" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F287" t="n">
-        <v>65.55555555555556</v>
+        <v>49.36708860759494</v>
       </c>
       <c r="G287" t="n">
-        <v>301</v>
+        <v>198</v>
       </c>
     </row>
     <row r="288">
@@ -7122,19 +7122,19 @@
         <v>70</v>
       </c>
       <c r="C288" t="n">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D288" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E288" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F288" t="n">
-        <v>74.61538461538461</v>
+        <v>60.41666666666666</v>
       </c>
       <c r="G288" t="n">
-        <v>482</v>
+        <v>259</v>
       </c>
     </row>
     <row r="289">
@@ -7145,19 +7145,19 @@
         <v>80</v>
       </c>
       <c r="C289" t="n">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D289" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E289" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F289" t="n">
-        <v>76.33587786259542</v>
+        <v>60.20408163265306</v>
       </c>
       <c r="G289" t="n">
-        <v>505</v>
+        <v>338</v>
       </c>
     </row>
     <row r="290">
@@ -7168,19 +7168,19 @@
         <v>90</v>
       </c>
       <c r="C290" t="n">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D290" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E290" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F290" t="n">
-        <v>60.58394160583942</v>
+        <v>57.39130434782609</v>
       </c>
       <c r="G290" t="n">
-        <v>556</v>
+        <v>380</v>
       </c>
     </row>
     <row r="291">
@@ -7191,19 +7191,19 @@
         <v>100</v>
       </c>
       <c r="C291" t="n">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="D291" t="n">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E291" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F291" t="n">
-        <v>63.68715083798882</v>
+        <v>67.14285714285714</v>
       </c>
       <c r="G291" t="n">
-        <v>661</v>
+        <v>703</v>
       </c>
     </row>
     <row r="292">
@@ -7214,19 +7214,19 @@
         <v>10</v>
       </c>
       <c r="C292" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D292" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E292" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F292" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G292" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293">
@@ -7237,19 +7237,19 @@
         <v>20</v>
       </c>
       <c r="C293" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D293" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E293" t="n">
         <v>14</v>
       </c>
       <c r="F293" t="n">
-        <v>75</v>
+        <v>57.69230769230769</v>
       </c>
       <c r="G293" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="294">
@@ -7260,19 +7260,19 @@
         <v>30</v>
       </c>
       <c r="C294" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D294" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E294" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F294" t="n">
-        <v>76.92307692307693</v>
+        <v>65.625</v>
       </c>
       <c r="G294" t="n">
-        <v>105</v>
+        <v>153</v>
       </c>
     </row>
     <row r="295">
@@ -7283,19 +7283,19 @@
         <v>40</v>
       </c>
       <c r="C295" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D295" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E295" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F295" t="n">
-        <v>63.33333333333333</v>
+        <v>58.06451612903226</v>
       </c>
       <c r="G295" t="n">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="296">
@@ -7306,19 +7306,19 @@
         <v>50</v>
       </c>
       <c r="C296" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D296" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E296" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F296" t="n">
-        <v>70.11494252873564</v>
+        <v>54.6875</v>
       </c>
       <c r="G296" t="n">
-        <v>328</v>
+        <v>129</v>
       </c>
     </row>
     <row r="297">
@@ -7329,19 +7329,19 @@
         <v>60</v>
       </c>
       <c r="C297" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D297" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E297" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F297" t="n">
-        <v>64</v>
+        <v>63.2183908045977</v>
       </c>
       <c r="G297" t="n">
-        <v>407</v>
+        <v>233</v>
       </c>
     </row>
     <row r="298">
@@ -7352,19 +7352,19 @@
         <v>70</v>
       </c>
       <c r="C298" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D298" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E298" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F298" t="n">
-        <v>64.70588235294117</v>
+        <v>70.70707070707071</v>
       </c>
       <c r="G298" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="299">
@@ -7375,19 +7375,19 @@
         <v>80</v>
       </c>
       <c r="C299" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D299" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E299" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F299" t="n">
-        <v>59.48275862068966</v>
+        <v>69.76744186046511</v>
       </c>
       <c r="G299" t="n">
-        <v>448</v>
+        <v>408</v>
       </c>
     </row>
     <row r="300">
@@ -7398,19 +7398,19 @@
         <v>90</v>
       </c>
       <c r="C300" t="n">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D300" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E300" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F300" t="n">
-        <v>56.12903225806451</v>
+        <v>56.41025641025641</v>
       </c>
       <c r="G300" t="n">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="301">
@@ -7421,19 +7421,19 @@
         <v>100</v>
       </c>
       <c r="C301" t="n">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D301" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E301" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F301" t="n">
-        <v>56.49717514124294</v>
+        <v>62.93706293706294</v>
       </c>
       <c r="G301" t="n">
-        <v>582</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
